--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>房东App，租客App</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -289,6 +285,34 @@
   </si>
   <si>
     <t>新录/编辑集中式房源，房间号取消和楼层关联</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩罚隐藏天数过了之后，点击官网展示，会显示‘’惩罚隐藏中，不可修改展示状态‘’。点击确认后可以修改。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfix</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急不重要</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfix</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中式房源编辑房型，字段错误</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1092,7 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,7 +1338,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>53</v>
@@ -1330,7 +1354,7 @@
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>47</v>
@@ -1361,7 +1385,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>26</v>
@@ -1424,7 +1448,7 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>47</v>
@@ -1455,7 +1479,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16">
@@ -1465,7 +1489,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="15"/>
       <c r="K8" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>47</v>
@@ -1496,7 +1520,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16">
@@ -1506,7 +1530,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="15"/>
       <c r="K9" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>47</v>
@@ -1537,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16">
@@ -1547,7 +1571,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="15"/>
       <c r="K10" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>47</v>
@@ -1572,13 +1596,13 @@
         <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16">
@@ -1588,7 +1612,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="15"/>
       <c r="K11" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>47</v>
@@ -1610,16 +1634,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -1646,13 +1670,13 @@
         <v>51</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -1671,12 +1695,22 @@
       <c r="T13" s="27"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1695,11 +1729,21 @@
       <c r="U14" s="28"/>
     </row>
     <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -313,6 +313,10 @@
   </si>
   <si>
     <t>集中式房源编辑房型，字段错误</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>App房源上传图片</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1089,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U179"/>
+  <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,7 +1242,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>44</v>
@@ -1282,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>44</v>
@@ -1297,13 +1301,13 @@
         <v>26</v>
       </c>
       <c r="G4" s="16">
-        <v>42661</v>
+        <v>42660</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="16">
-        <v>42661</v>
+        <v>42660</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="24" t="s">
@@ -1321,7 +1325,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="27"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="28"/>
     </row>
     <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1332,16 +1336,16 @@
         <v>51</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G5" s="16">
         <v>42661</v>
@@ -1354,7 +1358,7 @@
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="24" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>47</v>
@@ -1379,16 +1383,16 @@
         <v>51</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G6" s="16">
         <v>42661</v>
@@ -1401,7 +1405,7 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="24" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>47</v>
@@ -1426,29 +1430,29 @@
         <v>51</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G7" s="16">
-        <v>42663</v>
+        <v>42661</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="16">
-        <v>42663</v>
+        <v>42661</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="24" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>47</v>
@@ -1465,7 +1469,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1473,23 +1477,29 @@
         <v>51</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G8" s="16">
         <v>42663</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="16">
+        <v>42663</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>47</v>
@@ -1506,7 +1516,7 @@
       <c r="T8" s="27"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1514,23 +1524,23 @@
         <v>51</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16">
-        <v>42664</v>
+        <v>42663</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="15"/>
       <c r="K9" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>47</v>
@@ -1555,10 +1565,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>65</v>
@@ -1571,7 +1581,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="15"/>
       <c r="K10" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>47</v>
@@ -1596,7 +1606,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>44</v>
@@ -1612,7 +1622,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="15"/>
       <c r="K11" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>47</v>
@@ -1634,10 +1644,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>44</v>
@@ -1646,13 +1656,21 @@
         <v>65</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>42664</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="K12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="N12" s="24"/>
       <c r="O12" s="16"/>
       <c r="P12" s="24"/>
@@ -1667,13 +1685,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>65</v>
@@ -1695,21 +1713,21 @@
       <c r="T13" s="27"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
@@ -1728,18 +1746,18 @@
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>45</v>
@@ -1762,11 +1780,21 @@
       <c r="U15" s="28"/>
     </row>
     <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1900,26 +1928,26 @@
       <c r="U21" s="28"/>
     </row>
     <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="19"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="24"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="19"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="28"/>
     </row>
     <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1945,27 +1973,28 @@
       <c r="T23" s="19"/>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="22"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="28"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
@@ -3161,7 +3190,7 @@
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="21"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="23"/>
       <c r="H79" s="21"/>
       <c r="I79" s="23"/>
@@ -3287,12 +3316,12 @@
       <c r="S84" s="21"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="21"/>
       <c r="G85" s="23"/>
       <c r="H85" s="21"/>
@@ -4624,6 +4653,9 @@
       <c r="N145" s="21"/>
       <c r="O145" s="23"/>
       <c r="P145" s="22"/>
+      <c r="Q145" s="21"/>
+      <c r="R145" s="21"/>
+      <c r="S145" s="21"/>
       <c r="T145" s="22"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.15">
@@ -5271,6 +5303,25 @@
       <c r="O179" s="23"/>
       <c r="P179" s="22"/>
       <c r="T179" s="22"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A180" s="21"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="21"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="21"/>
+      <c r="O180" s="23"/>
+      <c r="P180" s="22"/>
+      <c r="T180" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T3"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>App房源上传图片权限控制</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>重要不紧急</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -317,6 +313,14 @@
   </si>
   <si>
     <t>App房源上传图片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>App房源录入权限控制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1100,7 @@
   <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,19 +1243,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="G3" s="16">
         <v>42660</v>
@@ -1264,7 +1268,7 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="24" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>47</v>
@@ -1289,13 +1293,13 @@
         <v>49</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>26</v>
@@ -1311,7 +1315,7 @@
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="24" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>47</v>
@@ -1333,16 +1337,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>26</v>
@@ -1380,19 +1384,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="16">
         <v>42661</v>
@@ -1405,7 +1409,7 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>47</v>
@@ -1427,16 +1431,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>26</v>
@@ -1474,19 +1478,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="G8" s="16">
         <v>42663</v>
@@ -1499,7 +1503,7 @@
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>47</v>
@@ -1521,16 +1525,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16">
@@ -1540,7 +1544,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="15"/>
       <c r="K9" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>47</v>
@@ -1562,16 +1566,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16">
@@ -1581,7 +1585,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="15"/>
       <c r="K10" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>47</v>
@@ -1603,16 +1607,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16">
@@ -1622,7 +1626,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="15"/>
       <c r="K11" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>47</v>
@@ -1644,16 +1648,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16">
@@ -1663,7 +1667,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="15"/>
       <c r="K12" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>47</v>
@@ -1685,16 +1689,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -1718,16 +1722,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
@@ -1751,13 +1755,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>45</v>
@@ -1784,13 +1788,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>45</v>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -161,13 +161,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>功能优化</t>
-  </si>
-  <si>
-    <t>功能优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -236,14 +229,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>功能优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -321,6 +306,69 @@
   </si>
   <si>
     <t>徐文瑞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>总要不紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传房东id，格式为landlordid-''房东姓名''</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑房型是房源描述保存报错</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1148,7 @@
   <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K4"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1196,16 +1244,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>26</v>
@@ -1221,16 +1269,20 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="16"/>
+      <c r="N2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="16">
+        <v>42664</v>
+      </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -1243,19 +1295,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="G3" s="16">
         <v>42660</v>
@@ -1268,16 +1320,20 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="16">
+        <v>42664</v>
+      </c>
       <c r="P3" s="24"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1290,16 +1346,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>26</v>
@@ -1315,16 +1371,20 @@
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="16">
+        <v>42664</v>
+      </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1337,16 +1397,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>26</v>
@@ -1362,16 +1422,20 @@
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="16"/>
+      <c r="N5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="16">
+        <v>42664</v>
+      </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1384,19 +1448,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="16">
         <v>42661</v>
@@ -1409,16 +1473,20 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="16">
+        <v>42664</v>
+      </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1431,16 +1499,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>26</v>
@@ -1456,16 +1524,20 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="16">
+        <v>42664</v>
+      </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1478,19 +1550,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="16">
         <v>42663</v>
@@ -1503,16 +1575,20 @@
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="16">
+        <v>42664</v>
+      </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1525,16 +1601,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16">
@@ -1544,13 +1620,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="15"/>
       <c r="K9" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="16"/>
@@ -1566,35 +1642,45 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="16">
         <v>42664</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="16">
+        <v>42664</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="16">
+        <v>42664</v>
+      </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1607,35 +1693,45 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="16">
         <v>42664</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="H11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="16">
+        <v>42664</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="16">
+        <v>42664</v>
+      </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1648,16 +1744,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16">
@@ -1667,13 +1763,13 @@
       <c r="I12" s="16"/>
       <c r="J12" s="15"/>
       <c r="K12" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="16"/>
@@ -1689,25 +1785,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="N13" s="24"/>
       <c r="O13" s="16"/>
       <c r="P13" s="24"/>
@@ -1722,25 +1822,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="N14" s="24"/>
       <c r="O14" s="16"/>
       <c r="P14" s="24"/>
@@ -1755,25 +1859,39 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="16">
+        <v>42664</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="16">
+        <v>42664</v>
+      </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="K15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="16"/>
       <c r="P15" s="24"/>
@@ -1788,27 +1906,45 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="16">
+        <v>42664</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="16">
+        <v>42664</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="16"/>
+      <c r="L16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="16">
+        <v>42664</v>
+      </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -1817,11 +1953,21 @@
       <c r="U16" s="28"/>
     </row>
     <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1829,7 +1975,9 @@
       <c r="J17" s="15"/>
       <c r="K17" s="24"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="M17" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="N17" s="24"/>
       <c r="O17" s="16"/>
       <c r="P17" s="24"/>
@@ -1840,11 +1988,21 @@
       <c r="U17" s="28"/>
     </row>
     <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="28700" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -21,11 +16,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>韩淑芳</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房态图新增续租相关功能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -766,7 +762,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -774,6 +769,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -799,7 +795,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1145,39 +1141,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U180"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="60.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
     <col min="5" max="5" width="18" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="10" customWidth="1"/>
     <col min="14" max="14" width="10" style="11" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="11" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="11" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="11" customWidth="1"/>
     <col min="17" max="17" width="12" style="12" customWidth="1"/>
     <col min="18" max="18" width="17" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="41.875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="41.83203125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="28">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1250,7 +1246,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>43</v>
@@ -1278,7 +1274,7 @@
         <v>46</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="16">
         <v>42664</v>
@@ -1290,7 +1286,7 @@
       <c r="T2" s="27"/>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1298,10 +1294,10 @@
         <v>48</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>49</v>
@@ -1320,7 +1316,7 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>45</v>
@@ -1329,7 +1325,7 @@
         <v>46</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="16">
         <v>42664</v>
@@ -1341,7 +1337,7 @@
       <c r="T3" s="29"/>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1349,10 +1345,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>49</v>
@@ -1371,7 +1367,7 @@
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>45</v>
@@ -1380,7 +1376,7 @@
         <v>46</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="16">
         <v>42664</v>
@@ -1392,7 +1388,7 @@
       <c r="T4" s="29"/>
       <c r="U4" s="28"/>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1403,7 +1399,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>49</v>
@@ -1431,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" s="16">
         <v>42664</v>
@@ -1443,7 +1439,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="28"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1454,10 +1450,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>50</v>
@@ -1482,7 +1478,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O6" s="16">
         <v>42664</v>
@@ -1494,7 +1490,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>26</v>
@@ -1533,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" s="16">
         <v>42664</v>
@@ -1545,7 +1541,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="16">
         <v>42664</v>
@@ -1596,7 +1592,7 @@
       <c r="T8" s="27"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="45">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>60</v>
@@ -1637,7 +1633,7 @@
       <c r="T9" s="27"/>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>60</v>
@@ -1676,7 +1672,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O10" s="16">
         <v>42664</v>
@@ -1688,7 +1684,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1699,7 +1695,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>60</v>
@@ -1727,7 +1723,7 @@
         <v>46</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" s="16">
         <v>42664</v>
@@ -1739,35 +1735,31 @@
       <c r="T11" s="27"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="16">
-        <v>42664</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="15"/>
       <c r="K12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="L12" s="15"/>
       <c r="M12" s="15" t="s">
         <v>46</v>
       </c>
@@ -1780,18 +1772,18 @@
       <c r="T12" s="27"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>60</v>
@@ -1802,7 +1794,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="15"/>
       <c r="K13" s="24" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15" t="s">
@@ -1817,31 +1809,41 @@
       <c r="T13" s="27"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="30">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="16">
+        <v>42664</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="16">
+        <v>42664</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="M14" s="15" t="s">
         <v>46</v>
       </c>
@@ -1854,46 +1856,50 @@
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="G15" s="16">
         <v>42664</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>26</v>
+      <c r="H15" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="I15" s="16">
         <v>42664</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="24" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="16"/>
+      <c r="N15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="16">
+        <v>42664</v>
+      </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -1901,50 +1907,34 @@
       <c r="T15" s="27"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="16">
-        <v>42664</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="16">
-        <v>42664</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="16">
-        <v>42664</v>
-      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -1952,21 +1942,21 @@
       <c r="T16" s="27"/>
       <c r="U16" s="28"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
@@ -1975,9 +1965,7 @@
       <c r="J17" s="15"/>
       <c r="K17" s="24"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="M17" s="15"/>
       <c r="N17" s="24"/>
       <c r="O17" s="16"/>
       <c r="P17" s="24"/>
@@ -1987,22 +1975,12 @@
       <c r="T17" s="27"/>
       <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>92</v>
-      </c>
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -2020,7 +1998,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="17"/>
@@ -2043,7 +2021,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
@@ -2066,7 +2044,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="17"/>
@@ -2089,30 +2067,30 @@
       <c r="T21" s="27"/>
       <c r="U21" s="28"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="24"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="27"/>
+      <c r="T22" s="19"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -2135,30 +2113,29 @@
       <c r="T23" s="19"/>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
+    <row r="24" spans="1:21" ht="15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="19"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="28"/>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T24" s="22"/>
+    </row>
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -2180,7 +2157,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="22"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -2202,7 +2179,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -2224,7 +2201,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="22"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -2246,7 +2223,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -2268,7 +2245,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="22"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -2290,7 +2267,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -2312,7 +2289,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -2334,7 +2311,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" ht="15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -2356,7 +2333,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -2378,7 +2355,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -2400,7 +2377,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -2422,7 +2399,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -2444,7 +2421,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -2466,7 +2443,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -2488,7 +2465,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2510,7 +2487,7 @@
       <c r="S40" s="21"/>
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -2532,7 +2509,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2554,7 +2531,7 @@
       <c r="S42" s="21"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2576,7 +2553,7 @@
       <c r="S43" s="21"/>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -2598,7 +2575,7 @@
       <c r="S44" s="21"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2620,7 +2597,7 @@
       <c r="S45" s="21"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -2642,7 +2619,7 @@
       <c r="S46" s="21"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -2664,7 +2641,7 @@
       <c r="S47" s="21"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -2686,7 +2663,7 @@
       <c r="S48" s="21"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -2708,7 +2685,7 @@
       <c r="S49" s="21"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2730,7 +2707,7 @@
       <c r="S50" s="21"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" ht="15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -2752,7 +2729,7 @@
       <c r="S51" s="21"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -2774,7 +2751,7 @@
       <c r="S52" s="21"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -2796,7 +2773,7 @@
       <c r="S53" s="21"/>
       <c r="T53" s="22"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -2818,7 +2795,7 @@
       <c r="S54" s="21"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" ht="15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2840,7 +2817,7 @@
       <c r="S55" s="21"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" ht="15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -2862,7 +2839,7 @@
       <c r="S56" s="21"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -2884,7 +2861,7 @@
       <c r="S57" s="21"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -2906,7 +2883,7 @@
       <c r="S58" s="21"/>
       <c r="T58" s="22"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -2928,7 +2905,7 @@
       <c r="S59" s="21"/>
       <c r="T59" s="22"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2950,7 +2927,7 @@
       <c r="S60" s="21"/>
       <c r="T60" s="22"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -2972,7 +2949,7 @@
       <c r="S61" s="21"/>
       <c r="T61" s="22"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -2994,7 +2971,7 @@
       <c r="S62" s="21"/>
       <c r="T62" s="22"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -3016,7 +2993,7 @@
       <c r="S63" s="21"/>
       <c r="T63" s="22"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -3038,7 +3015,7 @@
       <c r="S64" s="21"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" ht="15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -3060,7 +3037,7 @@
       <c r="S65" s="21"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" ht="15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -3082,7 +3059,7 @@
       <c r="S66" s="21"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -3104,7 +3081,7 @@
       <c r="S67" s="21"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -3126,7 +3103,7 @@
       <c r="S68" s="21"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -3148,7 +3125,7 @@
       <c r="S69" s="21"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -3170,7 +3147,7 @@
       <c r="S70" s="21"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" ht="15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -3192,7 +3169,7 @@
       <c r="S71" s="21"/>
       <c r="T71" s="22"/>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -3214,7 +3191,7 @@
       <c r="S72" s="21"/>
       <c r="T72" s="22"/>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" ht="15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -3236,7 +3213,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="22"/>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" ht="15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -3258,7 +3235,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="22"/>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" ht="15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -3280,7 +3257,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" ht="15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -3302,7 +3279,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" ht="15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -3324,7 +3301,7 @@
       <c r="S77" s="21"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" ht="15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -3346,13 +3323,13 @@
       <c r="S78" s="21"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" ht="15">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
+      <c r="F79" s="21"/>
       <c r="G79" s="23"/>
       <c r="H79" s="21"/>
       <c r="I79" s="23"/>
@@ -3368,7 +3345,7 @@
       <c r="S79" s="21"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" ht="15">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -3390,7 +3367,7 @@
       <c r="S80" s="21"/>
       <c r="T80" s="22"/>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" ht="15">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -3412,7 +3389,7 @@
       <c r="S81" s="21"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" ht="15">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -3434,7 +3411,7 @@
       <c r="S82" s="21"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" ht="15">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -3456,7 +3433,7 @@
       <c r="S83" s="21"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" ht="15">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -3478,12 +3455,12 @@
       <c r="S84" s="21"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="15"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="21"/>
       <c r="G85" s="23"/>
       <c r="H85" s="21"/>
@@ -3500,7 +3477,7 @@
       <c r="S85" s="21"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -3522,7 +3499,7 @@
       <c r="S86" s="21"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -3544,7 +3521,7 @@
       <c r="S87" s="21"/>
       <c r="T87" s="22"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -3566,7 +3543,7 @@
       <c r="S88" s="21"/>
       <c r="T88" s="22"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -3588,7 +3565,7 @@
       <c r="S89" s="21"/>
       <c r="T89" s="22"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3610,7 +3587,7 @@
       <c r="S90" s="21"/>
       <c r="T90" s="22"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -3632,7 +3609,7 @@
       <c r="S91" s="21"/>
       <c r="T91" s="22"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -3654,7 +3631,7 @@
       <c r="S92" s="21"/>
       <c r="T92" s="22"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -3676,7 +3653,7 @@
       <c r="S93" s="21"/>
       <c r="T93" s="22"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -3698,7 +3675,7 @@
       <c r="S94" s="21"/>
       <c r="T94" s="22"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3720,7 +3697,7 @@
       <c r="S95" s="21"/>
       <c r="T95" s="22"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -3742,7 +3719,7 @@
       <c r="S96" s="21"/>
       <c r="T96" s="22"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -3764,7 +3741,7 @@
       <c r="S97" s="21"/>
       <c r="T97" s="22"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -3786,7 +3763,7 @@
       <c r="S98" s="21"/>
       <c r="T98" s="22"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -3808,7 +3785,7 @@
       <c r="S99" s="21"/>
       <c r="T99" s="22"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -3830,7 +3807,7 @@
       <c r="S100" s="21"/>
       <c r="T100" s="22"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -3852,7 +3829,7 @@
       <c r="S101" s="21"/>
       <c r="T101" s="22"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -3874,7 +3851,7 @@
       <c r="S102" s="21"/>
       <c r="T102" s="22"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -3896,7 +3873,7 @@
       <c r="S103" s="21"/>
       <c r="T103" s="22"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -3918,7 +3895,7 @@
       <c r="S104" s="21"/>
       <c r="T104" s="22"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -3940,7 +3917,7 @@
       <c r="S105" s="21"/>
       <c r="T105" s="22"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -3962,7 +3939,7 @@
       <c r="S106" s="21"/>
       <c r="T106" s="22"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -3984,7 +3961,7 @@
       <c r="S107" s="21"/>
       <c r="T107" s="22"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -4006,7 +3983,7 @@
       <c r="S108" s="21"/>
       <c r="T108" s="22"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -4028,7 +4005,7 @@
       <c r="S109" s="21"/>
       <c r="T109" s="22"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -4050,7 +4027,7 @@
       <c r="S110" s="21"/>
       <c r="T110" s="22"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -4072,7 +4049,7 @@
       <c r="S111" s="21"/>
       <c r="T111" s="22"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -4094,7 +4071,7 @@
       <c r="S112" s="21"/>
       <c r="T112" s="22"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -4116,7 +4093,7 @@
       <c r="S113" s="21"/>
       <c r="T113" s="22"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -4138,7 +4115,7 @@
       <c r="S114" s="21"/>
       <c r="T114" s="22"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -4160,7 +4137,7 @@
       <c r="S115" s="21"/>
       <c r="T115" s="22"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -4182,7 +4159,7 @@
       <c r="S116" s="21"/>
       <c r="T116" s="22"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -4204,7 +4181,7 @@
       <c r="S117" s="21"/>
       <c r="T117" s="22"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -4226,7 +4203,7 @@
       <c r="S118" s="21"/>
       <c r="T118" s="22"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22"/>
@@ -4248,7 +4225,7 @@
       <c r="S119" s="21"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22"/>
@@ -4270,7 +4247,7 @@
       <c r="S120" s="21"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -4292,7 +4269,7 @@
       <c r="S121" s="21"/>
       <c r="T121" s="22"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -4314,7 +4291,7 @@
       <c r="S122" s="21"/>
       <c r="T122" s="22"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -4336,7 +4313,7 @@
       <c r="S123" s="21"/>
       <c r="T123" s="22"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -4358,7 +4335,7 @@
       <c r="S124" s="21"/>
       <c r="T124" s="22"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22"/>
@@ -4380,7 +4357,7 @@
       <c r="S125" s="21"/>
       <c r="T125" s="22"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22"/>
@@ -4402,7 +4379,7 @@
       <c r="S126" s="21"/>
       <c r="T126" s="22"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -4424,7 +4401,7 @@
       <c r="S127" s="21"/>
       <c r="T127" s="22"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22"/>
@@ -4446,7 +4423,7 @@
       <c r="S128" s="21"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -4468,7 +4445,7 @@
       <c r="S129" s="21"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22"/>
@@ -4490,7 +4467,7 @@
       <c r="S130" s="21"/>
       <c r="T130" s="22"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22"/>
@@ -4512,7 +4489,7 @@
       <c r="S131" s="21"/>
       <c r="T131" s="22"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22"/>
@@ -4534,7 +4511,7 @@
       <c r="S132" s="21"/>
       <c r="T132" s="22"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22"/>
@@ -4556,7 +4533,7 @@
       <c r="S133" s="21"/>
       <c r="T133" s="22"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
@@ -4578,7 +4555,7 @@
       <c r="S134" s="21"/>
       <c r="T134" s="22"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22"/>
@@ -4600,7 +4577,7 @@
       <c r="S135" s="21"/>
       <c r="T135" s="22"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22"/>
@@ -4622,7 +4599,7 @@
       <c r="S136" s="21"/>
       <c r="T136" s="22"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22"/>
@@ -4644,7 +4621,7 @@
       <c r="S137" s="21"/>
       <c r="T137" s="22"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22"/>
@@ -4666,7 +4643,7 @@
       <c r="S138" s="21"/>
       <c r="T138" s="22"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="22"/>
@@ -4688,7 +4665,7 @@
       <c r="S139" s="21"/>
       <c r="T139" s="22"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
@@ -4710,7 +4687,7 @@
       <c r="S140" s="21"/>
       <c r="T140" s="22"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="22"/>
@@ -4732,7 +4709,7 @@
       <c r="S141" s="21"/>
       <c r="T141" s="22"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
@@ -4754,7 +4731,7 @@
       <c r="S142" s="21"/>
       <c r="T142" s="22"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22"/>
@@ -4776,7 +4753,7 @@
       <c r="S143" s="21"/>
       <c r="T143" s="22"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
@@ -4798,7 +4775,7 @@
       <c r="S144" s="21"/>
       <c r="T144" s="22"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:20">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="22"/>
@@ -4815,12 +4792,9 @@
       <c r="N145" s="21"/>
       <c r="O145" s="23"/>
       <c r="P145" s="22"/>
-      <c r="Q145" s="21"/>
-      <c r="R145" s="21"/>
-      <c r="S145" s="21"/>
       <c r="T145" s="22"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:20">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="22"/>
@@ -4839,7 +4813,7 @@
       <c r="P146" s="22"/>
       <c r="T146" s="22"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:20">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="22"/>
@@ -4858,7 +4832,7 @@
       <c r="P147" s="22"/>
       <c r="T147" s="22"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:20">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="22"/>
@@ -4877,7 +4851,7 @@
       <c r="P148" s="22"/>
       <c r="T148" s="22"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:20">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="22"/>
@@ -4896,7 +4870,7 @@
       <c r="P149" s="22"/>
       <c r="T149" s="22"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:20">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -4915,7 +4889,7 @@
       <c r="P150" s="22"/>
       <c r="T150" s="22"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:20">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -4934,7 +4908,7 @@
       <c r="P151" s="22"/>
       <c r="T151" s="22"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:20">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="22"/>
@@ -4953,7 +4927,7 @@
       <c r="P152" s="22"/>
       <c r="T152" s="22"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:20">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22"/>
@@ -4972,7 +4946,7 @@
       <c r="P153" s="22"/>
       <c r="T153" s="22"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:20">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
@@ -4991,7 +4965,7 @@
       <c r="P154" s="22"/>
       <c r="T154" s="22"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:20">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22"/>
@@ -5010,7 +4984,7 @@
       <c r="P155" s="22"/>
       <c r="T155" s="22"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:20">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -5029,7 +5003,7 @@
       <c r="P156" s="22"/>
       <c r="T156" s="22"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:20">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -5048,7 +5022,7 @@
       <c r="P157" s="22"/>
       <c r="T157" s="22"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:20">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -5067,7 +5041,7 @@
       <c r="P158" s="22"/>
       <c r="T158" s="22"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:20">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -5086,7 +5060,7 @@
       <c r="P159" s="22"/>
       <c r="T159" s="22"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:20">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -5105,7 +5079,7 @@
       <c r="P160" s="22"/>
       <c r="T160" s="22"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:20">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -5124,7 +5098,7 @@
       <c r="P161" s="22"/>
       <c r="T161" s="22"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:20">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -5143,7 +5117,7 @@
       <c r="P162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:20">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -5162,7 +5136,7 @@
       <c r="P163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:20">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -5181,7 +5155,7 @@
       <c r="P164" s="22"/>
       <c r="T164" s="22"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:20">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -5200,7 +5174,7 @@
       <c r="P165" s="22"/>
       <c r="T165" s="22"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:20">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -5219,7 +5193,7 @@
       <c r="P166" s="22"/>
       <c r="T166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:20">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -5238,7 +5212,7 @@
       <c r="P167" s="22"/>
       <c r="T167" s="22"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:20">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -5257,7 +5231,7 @@
       <c r="P168" s="22"/>
       <c r="T168" s="22"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:20">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -5276,7 +5250,7 @@
       <c r="P169" s="22"/>
       <c r="T169" s="22"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:20">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -5295,7 +5269,7 @@
       <c r="P170" s="22"/>
       <c r="T170" s="22"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:20">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -5314,7 +5288,7 @@
       <c r="P171" s="22"/>
       <c r="T171" s="22"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:20">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -5333,7 +5307,7 @@
       <c r="P172" s="22"/>
       <c r="T172" s="22"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:20">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -5352,7 +5326,7 @@
       <c r="P173" s="22"/>
       <c r="T173" s="22"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:20">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -5371,7 +5345,7 @@
       <c r="P174" s="22"/>
       <c r="T174" s="22"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:20">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -5390,7 +5364,7 @@
       <c r="P175" s="22"/>
       <c r="T175" s="22"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:20">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -5409,7 +5383,7 @@
       <c r="P176" s="22"/>
       <c r="T176" s="22"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:20">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -5428,7 +5402,7 @@
       <c r="P177" s="22"/>
       <c r="T177" s="22"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:20">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -5447,7 +5421,7 @@
       <c r="P178" s="22"/>
       <c r="T178" s="22"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:20">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -5466,30 +5440,16 @@
       <c r="P179" s="22"/>
       <c r="T179" s="22"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A180" s="21"/>
-      <c r="B180" s="21"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="23"/>
-      <c r="H180" s="21"/>
-      <c r="I180" s="23"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="21"/>
-      <c r="L180" s="21"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="21"/>
-      <c r="O180" s="23"/>
-      <c r="P180" s="22"/>
-      <c r="T180" s="22"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:T3"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5501,18 +5461,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5538,7 +5498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5548,7 +5508,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5558,7 +5518,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5568,7 +5528,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5578,7 +5538,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5588,7 +5548,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5598,7 +5558,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5608,7 +5568,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5618,7 +5578,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5628,7 +5588,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5638,7 +5598,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5648,7 +5608,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5658,7 +5618,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5668,7 +5628,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5678,7 +5638,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5688,7 +5648,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5698,7 +5658,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5708,7 +5668,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5726,6 +5686,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5737,843 +5702,843 @@
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="40" customWidth="1"/>
     <col min="5" max="5" width="17" style="40" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="9" style="41" customWidth="1"/>
-    <col min="13" max="13" width="29.625" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="257" max="257" width="3.83203125" customWidth="1"/>
+    <col min="258" max="258" width="10.1640625" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="260" max="260" width="12.1640625" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.25" customWidth="1"/>
-    <col min="264" max="264" width="25.75" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.1640625" customWidth="1"/>
+    <col min="263" max="263" width="82.1640625" customWidth="1"/>
+    <col min="264" max="264" width="25.6640625" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.83203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.75" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.6640625" customWidth="1"/>
+    <col min="513" max="513" width="3.83203125" customWidth="1"/>
+    <col min="514" max="514" width="10.1640625" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="516" max="516" width="12.1640625" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.25" customWidth="1"/>
-    <col min="520" max="520" width="25.75" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.1640625" customWidth="1"/>
+    <col min="519" max="519" width="82.1640625" customWidth="1"/>
+    <col min="520" max="520" width="25.6640625" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.83203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.75" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.6640625" customWidth="1"/>
+    <col min="769" max="769" width="3.83203125" customWidth="1"/>
+    <col min="770" max="770" width="10.1640625" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="772" max="772" width="12.1640625" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.25" customWidth="1"/>
-    <col min="776" max="776" width="25.75" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.1640625" customWidth="1"/>
+    <col min="775" max="775" width="82.1640625" customWidth="1"/>
+    <col min="776" max="776" width="25.6640625" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.83203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.75" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.25" customWidth="1"/>
-    <col min="1032" max="1032" width="25.75" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
+    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.75" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.25" customWidth="1"/>
-    <col min="1288" max="1288" width="25.75" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
+    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.75" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.25" customWidth="1"/>
-    <col min="1544" max="1544" width="25.75" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
+    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.75" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.25" customWidth="1"/>
-    <col min="1800" max="1800" width="25.75" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
+    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.75" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.25" customWidth="1"/>
-    <col min="2056" max="2056" width="25.75" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
+    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.75" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.25" customWidth="1"/>
-    <col min="2312" max="2312" width="25.75" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
+    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.75" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.25" customWidth="1"/>
-    <col min="2568" max="2568" width="25.75" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
+    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.75" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.25" customWidth="1"/>
-    <col min="2824" max="2824" width="25.75" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
+    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.75" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.25" customWidth="1"/>
-    <col min="3080" max="3080" width="25.75" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
+    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.75" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.25" customWidth="1"/>
-    <col min="3336" max="3336" width="25.75" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
+    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.75" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.25" customWidth="1"/>
-    <col min="3592" max="3592" width="25.75" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
+    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.75" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.25" customWidth="1"/>
-    <col min="3848" max="3848" width="25.75" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
+    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.75" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.25" customWidth="1"/>
-    <col min="4104" max="4104" width="25.75" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
+    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.75" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.25" customWidth="1"/>
-    <col min="4360" max="4360" width="25.75" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
+    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.75" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.25" customWidth="1"/>
-    <col min="4616" max="4616" width="25.75" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
+    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.75" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.25" customWidth="1"/>
-    <col min="4872" max="4872" width="25.75" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
+    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.75" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.25" customWidth="1"/>
-    <col min="5128" max="5128" width="25.75" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
+    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.75" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.25" customWidth="1"/>
-    <col min="5384" max="5384" width="25.75" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
+    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.75" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.25" customWidth="1"/>
-    <col min="5640" max="5640" width="25.75" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
+    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.75" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.25" customWidth="1"/>
-    <col min="5896" max="5896" width="25.75" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
+    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.75" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.25" customWidth="1"/>
-    <col min="6152" max="6152" width="25.75" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
+    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.75" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.25" customWidth="1"/>
-    <col min="6408" max="6408" width="25.75" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
+    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.75" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.25" customWidth="1"/>
-    <col min="6664" max="6664" width="25.75" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
+    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.75" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.25" customWidth="1"/>
-    <col min="6920" max="6920" width="25.75" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
+    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.75" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.25" customWidth="1"/>
-    <col min="7176" max="7176" width="25.75" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
+    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.75" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.25" customWidth="1"/>
-    <col min="7432" max="7432" width="25.75" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
+    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.75" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.25" customWidth="1"/>
-    <col min="7688" max="7688" width="25.75" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
+    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.75" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.25" customWidth="1"/>
-    <col min="7944" max="7944" width="25.75" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
+    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.75" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.25" customWidth="1"/>
-    <col min="8200" max="8200" width="25.75" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
+    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.75" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.25" customWidth="1"/>
-    <col min="8456" max="8456" width="25.75" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
+    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.75" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.25" customWidth="1"/>
-    <col min="8712" max="8712" width="25.75" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
+    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.75" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.25" customWidth="1"/>
-    <col min="8968" max="8968" width="25.75" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
+    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.75" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.25" customWidth="1"/>
-    <col min="9224" max="9224" width="25.75" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
+    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.75" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.25" customWidth="1"/>
-    <col min="9480" max="9480" width="25.75" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
+    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.75" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.25" customWidth="1"/>
-    <col min="9736" max="9736" width="25.75" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
+    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.75" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.25" customWidth="1"/>
-    <col min="9992" max="9992" width="25.75" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
+    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.75" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.25" customWidth="1"/>
-    <col min="10248" max="10248" width="25.75" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
+    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.75" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.25" customWidth="1"/>
-    <col min="10504" max="10504" width="25.75" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
+    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.75" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.25" customWidth="1"/>
-    <col min="10760" max="10760" width="25.75" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
+    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.75" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.25" customWidth="1"/>
-    <col min="11016" max="11016" width="25.75" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
+    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.75" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.25" customWidth="1"/>
-    <col min="11272" max="11272" width="25.75" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
+    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.75" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.25" customWidth="1"/>
-    <col min="11528" max="11528" width="25.75" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
+    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.75" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.25" customWidth="1"/>
-    <col min="11784" max="11784" width="25.75" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
+    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.75" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.25" customWidth="1"/>
-    <col min="12040" max="12040" width="25.75" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
+    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.75" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.25" customWidth="1"/>
-    <col min="12296" max="12296" width="25.75" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
+    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.75" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.25" customWidth="1"/>
-    <col min="12552" max="12552" width="25.75" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
+    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.75" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.25" customWidth="1"/>
-    <col min="12808" max="12808" width="25.75" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
+    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.75" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.25" customWidth="1"/>
-    <col min="13064" max="13064" width="25.75" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
+    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.75" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.25" customWidth="1"/>
-    <col min="13320" max="13320" width="25.75" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
+    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.75" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.25" customWidth="1"/>
-    <col min="13576" max="13576" width="25.75" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
+    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.75" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.25" customWidth="1"/>
-    <col min="13832" max="13832" width="25.75" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
+    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.75" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.25" customWidth="1"/>
-    <col min="14088" max="14088" width="25.75" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
+    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.75" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.25" customWidth="1"/>
-    <col min="14344" max="14344" width="25.75" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
+    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.75" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.25" customWidth="1"/>
-    <col min="14600" max="14600" width="25.75" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
+    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.75" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.25" customWidth="1"/>
-    <col min="14856" max="14856" width="25.75" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
+    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.75" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.25" customWidth="1"/>
-    <col min="15112" max="15112" width="25.75" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
+    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.75" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.25" customWidth="1"/>
-    <col min="15368" max="15368" width="25.75" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
+    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.75" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.25" customWidth="1"/>
-    <col min="15624" max="15624" width="25.75" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
+    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.75" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.25" customWidth="1"/>
-    <col min="15880" max="15880" width="25.75" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
+    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.75" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.25" customWidth="1"/>
-    <col min="16136" max="16136" width="25.75" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
+    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="45" t="s">
         <v>28</v>
       </c>
@@ -6590,7 +6555,7 @@
       <c r="L1" s="45"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -6605,7 +6570,7 @@
       <c r="L2" s="47"/>
       <c r="M2" s="48"/>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A3" s="30" t="s">
         <v>29</v>
       </c>
@@ -6646,7 +6611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6661,7 +6626,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A5" s="35"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -6676,7 +6641,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6691,7 +6656,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -6706,7 +6671,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6721,7 +6686,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6736,7 +6701,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6751,7 +6716,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6766,7 +6731,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6781,7 +6746,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="15">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -6813,5 +6778,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28700" windowHeight="13020"/>
+    <workbookView xWindow="28460" yWindow="0" windowWidth="38040" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>总要不紧急</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>上传房东id，格式为landlordid-''房东姓名''</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -340,10 +336,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -364,7 +356,19 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>马丁组</t>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要不紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -469,6 +473,20 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -592,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +627,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,13 +797,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="14">
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1144,7 +1186,7 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1246,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>43</v>
@@ -1274,7 +1316,7 @@
         <v>46</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="16">
         <v>42664</v>
@@ -1297,7 +1339,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>49</v>
@@ -1325,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" s="16">
         <v>42664</v>
@@ -1348,7 +1390,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>49</v>
@@ -1376,7 +1418,7 @@
         <v>46</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O4" s="16">
         <v>42664</v>
@@ -1399,7 +1441,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>49</v>
@@ -1427,7 +1469,7 @@
         <v>46</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O5" s="16">
         <v>42664</v>
@@ -1450,7 +1492,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>70</v>
@@ -1478,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="16">
         <v>42664</v>
@@ -1529,7 +1571,7 @@
         <v>46</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7" s="16">
         <v>42664</v>
@@ -1580,7 +1622,7 @@
         <v>46</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O8" s="16">
         <v>42664</v>
@@ -1603,17 +1645,23 @@
         <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G9" s="16">
         <v>42663</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="16">
+        <v>42665</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="24" t="s">
         <v>63</v>
@@ -1644,7 +1692,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>60</v>
@@ -1672,7 +1720,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O10" s="16">
         <v>42664</v>
@@ -1695,7 +1743,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>60</v>
@@ -1723,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="16">
         <v>42664</v>
@@ -1746,20 +1794,30 @@
         <v>67</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="16">
+        <v>42665</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="16">
+        <v>42665</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="M12" s="15" t="s">
         <v>46</v>
       </c>
@@ -1783,7 +1841,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>60</v>
@@ -1794,9 +1852,11 @@
       <c r="I13" s="16"/>
       <c r="J13" s="15"/>
       <c r="K13" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="M13" s="15" t="s">
         <v>46</v>
       </c>
@@ -1839,10 +1899,10 @@
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>46</v>
@@ -1873,13 +1933,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" s="16">
         <v>42664</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="16">
         <v>42664</v>
@@ -1889,13 +1949,13 @@
         <v>78</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O15" s="16">
         <v>42664</v>
@@ -1912,16 +1972,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
@@ -1950,13 +2010,13 @@
         <v>66</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28460" yWindow="0" windowWidth="38040" windowHeight="21060"/>
+    <workbookView xWindow="28455" yWindow="0" windowWidth="38040" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -369,6 +374,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张蕴熠</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -798,6 +807,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -807,11 +817,10 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1186,36 +1195,36 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="60.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="60.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
     <col min="5" max="5" width="18" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="10" customWidth="1"/>
     <col min="14" max="14" width="10" style="11" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="11" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="11" customWidth="1"/>
     <col min="17" max="17" width="12" style="12" customWidth="1"/>
     <col min="18" max="18" width="17" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="41.83203125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="41.875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="28">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1328,7 +1337,7 @@
       <c r="T2" s="27"/>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1379,7 +1388,7 @@
       <c r="T3" s="29"/>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="4" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1430,7 +1439,7 @@
       <c r="T4" s="29"/>
       <c r="U4" s="28"/>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1481,7 +1490,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="28"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1532,7 +1541,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1583,7 +1592,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1634,7 +1643,7 @@
       <c r="T8" s="27"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="45">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1681,7 +1690,7 @@
       <c r="T9" s="27"/>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1732,7 +1741,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1783,7 +1792,7 @@
       <c r="T11" s="27"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1830,7 +1839,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1869,7 +1878,7 @@
       <c r="T13" s="27"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="30">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1916,7 +1925,7 @@
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1967,7 +1976,7 @@
       <c r="T15" s="27"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1991,10 +2000,14 @@
       <c r="K16" s="24"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="16">
+        <v>42664</v>
+      </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -2002,7 +2015,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="28"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2035,7 +2048,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="17"/>
@@ -2058,7 +2071,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="17"/>
@@ -2081,7 +2094,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
@@ -2104,7 +2117,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="17"/>
@@ -2127,7 +2140,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="28"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -2150,7 +2163,7 @@
       <c r="T22" s="19"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="15">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -2173,7 +2186,7 @@
       <c r="T23" s="19"/>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -2195,7 +2208,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="22"/>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -2217,7 +2230,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="22"/>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -2239,7 +2252,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -2261,7 +2274,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="22"/>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -2283,7 +2296,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -2305,7 +2318,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="22"/>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -2327,7 +2340,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -2349,7 +2362,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -2371,7 +2384,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" ht="15">
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -2393,7 +2406,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="1:20" ht="15">
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -2415,7 +2428,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" spans="1:20" ht="15">
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -2437,7 +2450,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="1:20" ht="15">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -2459,7 +2472,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" spans="1:20" ht="15">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -2481,7 +2494,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="15">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -2503,7 +2516,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="15">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -2525,7 +2538,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="15">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2547,7 +2560,7 @@
       <c r="S40" s="21"/>
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="15">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -2569,7 +2582,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="15">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2591,7 +2604,7 @@
       <c r="S42" s="21"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="15">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2613,7 +2626,7 @@
       <c r="S43" s="21"/>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="15">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -2635,7 +2648,7 @@
       <c r="S44" s="21"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="15">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2657,7 +2670,7 @@
       <c r="S45" s="21"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="15">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -2679,7 +2692,7 @@
       <c r="S46" s="21"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="15">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -2701,7 +2714,7 @@
       <c r="S47" s="21"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="15">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -2723,7 +2736,7 @@
       <c r="S48" s="21"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" spans="1:20" ht="15">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -2745,7 +2758,7 @@
       <c r="S49" s="21"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" ht="15">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2767,7 +2780,7 @@
       <c r="S50" s="21"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" spans="1:20" ht="15">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -2789,7 +2802,7 @@
       <c r="S51" s="21"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" spans="1:20" ht="15">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -2811,7 +2824,7 @@
       <c r="S52" s="21"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" spans="1:20" ht="15">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -2833,7 +2846,7 @@
       <c r="S53" s="21"/>
       <c r="T53" s="22"/>
     </row>
-    <row r="54" spans="1:20" ht="15">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -2855,7 +2868,7 @@
       <c r="S54" s="21"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" spans="1:20" ht="15">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2877,7 +2890,7 @@
       <c r="S55" s="21"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" spans="1:20" ht="15">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -2899,7 +2912,7 @@
       <c r="S56" s="21"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" spans="1:20" ht="15">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -2921,7 +2934,7 @@
       <c r="S57" s="21"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20" ht="15">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -2943,7 +2956,7 @@
       <c r="S58" s="21"/>
       <c r="T58" s="22"/>
     </row>
-    <row r="59" spans="1:20" ht="15">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -2965,7 +2978,7 @@
       <c r="S59" s="21"/>
       <c r="T59" s="22"/>
     </row>
-    <row r="60" spans="1:20" ht="15">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2987,7 +3000,7 @@
       <c r="S60" s="21"/>
       <c r="T60" s="22"/>
     </row>
-    <row r="61" spans="1:20" ht="15">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -3009,7 +3022,7 @@
       <c r="S61" s="21"/>
       <c r="T61" s="22"/>
     </row>
-    <row r="62" spans="1:20" ht="15">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -3031,7 +3044,7 @@
       <c r="S62" s="21"/>
       <c r="T62" s="22"/>
     </row>
-    <row r="63" spans="1:20" ht="15">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -3053,7 +3066,7 @@
       <c r="S63" s="21"/>
       <c r="T63" s="22"/>
     </row>
-    <row r="64" spans="1:20" ht="15">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -3075,7 +3088,7 @@
       <c r="S64" s="21"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:20" ht="15">
+    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -3097,7 +3110,7 @@
       <c r="S65" s="21"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:20" ht="15">
+    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -3119,7 +3132,7 @@
       <c r="S66" s="21"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:20" ht="15">
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -3141,7 +3154,7 @@
       <c r="S67" s="21"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:20" ht="15">
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -3163,7 +3176,7 @@
       <c r="S68" s="21"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20" ht="15">
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -3185,7 +3198,7 @@
       <c r="S69" s="21"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20" ht="15">
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -3207,7 +3220,7 @@
       <c r="S70" s="21"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20" ht="15">
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -3229,7 +3242,7 @@
       <c r="S71" s="21"/>
       <c r="T71" s="22"/>
     </row>
-    <row r="72" spans="1:20" ht="15">
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -3251,7 +3264,7 @@
       <c r="S72" s="21"/>
       <c r="T72" s="22"/>
     </row>
-    <row r="73" spans="1:20" ht="15">
+    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -3273,7 +3286,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="22"/>
     </row>
-    <row r="74" spans="1:20" ht="15">
+    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -3295,7 +3308,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="22"/>
     </row>
-    <row r="75" spans="1:20" ht="15">
+    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -3317,7 +3330,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="1:20" ht="15">
+    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -3339,7 +3352,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:20" ht="15">
+    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -3361,7 +3374,7 @@
       <c r="S77" s="21"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:20" ht="15">
+    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -3383,7 +3396,7 @@
       <c r="S78" s="21"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:20" ht="15">
+    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -3405,7 +3418,7 @@
       <c r="S79" s="21"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" ht="15">
+    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -3427,7 +3440,7 @@
       <c r="S80" s="21"/>
       <c r="T80" s="22"/>
     </row>
-    <row r="81" spans="1:20" ht="15">
+    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -3449,7 +3462,7 @@
       <c r="S81" s="21"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20" ht="15">
+    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -3471,7 +3484,7 @@
       <c r="S82" s="21"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20" ht="15">
+    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -3493,7 +3506,7 @@
       <c r="S83" s="21"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20" ht="15">
+    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -3515,7 +3528,7 @@
       <c r="S84" s="21"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -3537,7 +3550,7 @@
       <c r="S85" s="21"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -3559,7 +3572,7 @@
       <c r="S86" s="21"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -3581,7 +3594,7 @@
       <c r="S87" s="21"/>
       <c r="T87" s="22"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -3603,7 +3616,7 @@
       <c r="S88" s="21"/>
       <c r="T88" s="22"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -3625,7 +3638,7 @@
       <c r="S89" s="21"/>
       <c r="T89" s="22"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3647,7 +3660,7 @@
       <c r="S90" s="21"/>
       <c r="T90" s="22"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -3669,7 +3682,7 @@
       <c r="S91" s="21"/>
       <c r="T91" s="22"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -3691,7 +3704,7 @@
       <c r="S92" s="21"/>
       <c r="T92" s="22"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -3713,7 +3726,7 @@
       <c r="S93" s="21"/>
       <c r="T93" s="22"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -3735,7 +3748,7 @@
       <c r="S94" s="21"/>
       <c r="T94" s="22"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3757,7 +3770,7 @@
       <c r="S95" s="21"/>
       <c r="T95" s="22"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -3779,7 +3792,7 @@
       <c r="S96" s="21"/>
       <c r="T96" s="22"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -3801,7 +3814,7 @@
       <c r="S97" s="21"/>
       <c r="T97" s="22"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -3823,7 +3836,7 @@
       <c r="S98" s="21"/>
       <c r="T98" s="22"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -3845,7 +3858,7 @@
       <c r="S99" s="21"/>
       <c r="T99" s="22"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -3867,7 +3880,7 @@
       <c r="S100" s="21"/>
       <c r="T100" s="22"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -3889,7 +3902,7 @@
       <c r="S101" s="21"/>
       <c r="T101" s="22"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -3911,7 +3924,7 @@
       <c r="S102" s="21"/>
       <c r="T102" s="22"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -3933,7 +3946,7 @@
       <c r="S103" s="21"/>
       <c r="T103" s="22"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -3955,7 +3968,7 @@
       <c r="S104" s="21"/>
       <c r="T104" s="22"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -3977,7 +3990,7 @@
       <c r="S105" s="21"/>
       <c r="T105" s="22"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -3999,7 +4012,7 @@
       <c r="S106" s="21"/>
       <c r="T106" s="22"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -4021,7 +4034,7 @@
       <c r="S107" s="21"/>
       <c r="T107" s="22"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -4043,7 +4056,7 @@
       <c r="S108" s="21"/>
       <c r="T108" s="22"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -4065,7 +4078,7 @@
       <c r="S109" s="21"/>
       <c r="T109" s="22"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -4087,7 +4100,7 @@
       <c r="S110" s="21"/>
       <c r="T110" s="22"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -4109,7 +4122,7 @@
       <c r="S111" s="21"/>
       <c r="T111" s="22"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -4131,7 +4144,7 @@
       <c r="S112" s="21"/>
       <c r="T112" s="22"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -4153,7 +4166,7 @@
       <c r="S113" s="21"/>
       <c r="T113" s="22"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -4175,7 +4188,7 @@
       <c r="S114" s="21"/>
       <c r="T114" s="22"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -4197,7 +4210,7 @@
       <c r="S115" s="21"/>
       <c r="T115" s="22"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -4219,7 +4232,7 @@
       <c r="S116" s="21"/>
       <c r="T116" s="22"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -4241,7 +4254,7 @@
       <c r="S117" s="21"/>
       <c r="T117" s="22"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -4263,7 +4276,7 @@
       <c r="S118" s="21"/>
       <c r="T118" s="22"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22"/>
@@ -4285,7 +4298,7 @@
       <c r="S119" s="21"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22"/>
@@ -4307,7 +4320,7 @@
       <c r="S120" s="21"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -4329,7 +4342,7 @@
       <c r="S121" s="21"/>
       <c r="T121" s="22"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -4351,7 +4364,7 @@
       <c r="S122" s="21"/>
       <c r="T122" s="22"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -4373,7 +4386,7 @@
       <c r="S123" s="21"/>
       <c r="T123" s="22"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -4395,7 +4408,7 @@
       <c r="S124" s="21"/>
       <c r="T124" s="22"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22"/>
@@ -4417,7 +4430,7 @@
       <c r="S125" s="21"/>
       <c r="T125" s="22"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22"/>
@@ -4439,7 +4452,7 @@
       <c r="S126" s="21"/>
       <c r="T126" s="22"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -4461,7 +4474,7 @@
       <c r="S127" s="21"/>
       <c r="T127" s="22"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22"/>
@@ -4483,7 +4496,7 @@
       <c r="S128" s="21"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -4505,7 +4518,7 @@
       <c r="S129" s="21"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22"/>
@@ -4527,7 +4540,7 @@
       <c r="S130" s="21"/>
       <c r="T130" s="22"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22"/>
@@ -4549,7 +4562,7 @@
       <c r="S131" s="21"/>
       <c r="T131" s="22"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22"/>
@@ -4571,7 +4584,7 @@
       <c r="S132" s="21"/>
       <c r="T132" s="22"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22"/>
@@ -4593,7 +4606,7 @@
       <c r="S133" s="21"/>
       <c r="T133" s="22"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
@@ -4615,7 +4628,7 @@
       <c r="S134" s="21"/>
       <c r="T134" s="22"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22"/>
@@ -4637,7 +4650,7 @@
       <c r="S135" s="21"/>
       <c r="T135" s="22"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22"/>
@@ -4659,7 +4672,7 @@
       <c r="S136" s="21"/>
       <c r="T136" s="22"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22"/>
@@ -4681,7 +4694,7 @@
       <c r="S137" s="21"/>
       <c r="T137" s="22"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22"/>
@@ -4703,7 +4716,7 @@
       <c r="S138" s="21"/>
       <c r="T138" s="22"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="22"/>
@@ -4725,7 +4738,7 @@
       <c r="S139" s="21"/>
       <c r="T139" s="22"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
@@ -4747,7 +4760,7 @@
       <c r="S140" s="21"/>
       <c r="T140" s="22"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="22"/>
@@ -4769,7 +4782,7 @@
       <c r="S141" s="21"/>
       <c r="T141" s="22"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
@@ -4791,7 +4804,7 @@
       <c r="S142" s="21"/>
       <c r="T142" s="22"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22"/>
@@ -4813,7 +4826,7 @@
       <c r="S143" s="21"/>
       <c r="T143" s="22"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
@@ -4835,7 +4848,7 @@
       <c r="S144" s="21"/>
       <c r="T144" s="22"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="22"/>
@@ -4854,7 +4867,7 @@
       <c r="P145" s="22"/>
       <c r="T145" s="22"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="22"/>
@@ -4873,7 +4886,7 @@
       <c r="P146" s="22"/>
       <c r="T146" s="22"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="22"/>
@@ -4892,7 +4905,7 @@
       <c r="P147" s="22"/>
       <c r="T147" s="22"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="22"/>
@@ -4911,7 +4924,7 @@
       <c r="P148" s="22"/>
       <c r="T148" s="22"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="22"/>
@@ -4930,7 +4943,7 @@
       <c r="P149" s="22"/>
       <c r="T149" s="22"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -4949,7 +4962,7 @@
       <c r="P150" s="22"/>
       <c r="T150" s="22"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -4968,7 +4981,7 @@
       <c r="P151" s="22"/>
       <c r="T151" s="22"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="22"/>
@@ -4987,7 +5000,7 @@
       <c r="P152" s="22"/>
       <c r="T152" s="22"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22"/>
@@ -5006,7 +5019,7 @@
       <c r="P153" s="22"/>
       <c r="T153" s="22"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
@@ -5025,7 +5038,7 @@
       <c r="P154" s="22"/>
       <c r="T154" s="22"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22"/>
@@ -5044,7 +5057,7 @@
       <c r="P155" s="22"/>
       <c r="T155" s="22"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -5063,7 +5076,7 @@
       <c r="P156" s="22"/>
       <c r="T156" s="22"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -5082,7 +5095,7 @@
       <c r="P157" s="22"/>
       <c r="T157" s="22"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -5101,7 +5114,7 @@
       <c r="P158" s="22"/>
       <c r="T158" s="22"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -5120,7 +5133,7 @@
       <c r="P159" s="22"/>
       <c r="T159" s="22"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -5139,7 +5152,7 @@
       <c r="P160" s="22"/>
       <c r="T160" s="22"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -5158,7 +5171,7 @@
       <c r="P161" s="22"/>
       <c r="T161" s="22"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -5177,7 +5190,7 @@
       <c r="P162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -5196,7 +5209,7 @@
       <c r="P163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -5215,7 +5228,7 @@
       <c r="P164" s="22"/>
       <c r="T164" s="22"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -5234,7 +5247,7 @@
       <c r="P165" s="22"/>
       <c r="T165" s="22"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -5253,7 +5266,7 @@
       <c r="P166" s="22"/>
       <c r="T166" s="22"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -5272,7 +5285,7 @@
       <c r="P167" s="22"/>
       <c r="T167" s="22"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -5291,7 +5304,7 @@
       <c r="P168" s="22"/>
       <c r="T168" s="22"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -5310,7 +5323,7 @@
       <c r="P169" s="22"/>
       <c r="T169" s="22"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -5329,7 +5342,7 @@
       <c r="P170" s="22"/>
       <c r="T170" s="22"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -5348,7 +5361,7 @@
       <c r="P171" s="22"/>
       <c r="T171" s="22"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -5367,7 +5380,7 @@
       <c r="P172" s="22"/>
       <c r="T172" s="22"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -5386,7 +5399,7 @@
       <c r="P173" s="22"/>
       <c r="T173" s="22"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -5405,7 +5418,7 @@
       <c r="P174" s="22"/>
       <c r="T174" s="22"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -5424,7 +5437,7 @@
       <c r="P175" s="22"/>
       <c r="T175" s="22"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -5443,7 +5456,7 @@
       <c r="P176" s="22"/>
       <c r="T176" s="22"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -5462,7 +5475,7 @@
       <c r="P177" s="22"/>
       <c r="T177" s="22"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -5481,7 +5494,7 @@
       <c r="P178" s="22"/>
       <c r="T178" s="22"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -5521,18 +5534,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5558,7 +5571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5568,7 +5581,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5578,7 +5591,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5588,7 +5601,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5598,7 +5611,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5608,7 +5621,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5618,7 +5631,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5628,7 +5641,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5638,7 +5651,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5648,7 +5661,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5658,7 +5671,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5668,7 +5681,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5678,7 +5691,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5688,7 +5701,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5698,7 +5711,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5708,7 +5721,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5718,7 +5731,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5728,7 +5741,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5762,843 +5775,843 @@
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="40" customWidth="1"/>
     <col min="5" max="5" width="17" style="40" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="41" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>28</v>
       </c>
@@ -6615,7 +6628,7 @@
       <c r="L1" s="45"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -6630,7 +6643,7 @@
       <c r="L2" s="47"/>
       <c r="M2" s="48"/>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>29</v>
       </c>
@@ -6671,7 +6684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6686,7 +6699,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -6701,7 +6714,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6716,7 +6729,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -6731,7 +6744,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6746,7 +6759,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6761,7 +6774,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6776,7 +6789,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6791,7 +6804,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6806,7 +6819,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>No</t>
   </si>
@@ -136,6 +136,9 @@
     <t>Bugfix</t>
   </si>
   <si>
+    <t>租客App、房东App</t>
+  </si>
+  <si>
     <t>App房态图分店筛选</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>装修中房态图显示</t>
+  </si>
+  <si>
+    <t>房东PC、房东App</t>
   </si>
   <si>
     <t>新录/编辑集中式房源，房间号取消和楼层关联</t>
@@ -252,9 +258,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -268,12 +274,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -312,58 +312,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,15 +339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,8 +367,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,33 +397,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,6 +419,56 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -483,6 +492,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,13 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,55 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +594,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,13 +618,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,66 +679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,21 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -803,21 +797,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,6 +836,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -865,162 +859,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,40 +1043,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,25 +1085,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1106,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1121,19 +1136,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,26 +1169,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1184,50 +1199,52 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="常规 6" xfId="11"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="17"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="46"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="51"/>
-    <cellStyle name="常规 3" xfId="52"/>
-    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="甘特图" xfId="19"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="常规 9" xfId="22"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="常规 3 12" xfId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
+    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 4" xfId="55"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1592,8 +1609,8 @@
   <sheetPr/>
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1953,7 +1970,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>24</v>
@@ -1998,7 +2015,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>37</v>
@@ -2049,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>22</v>
@@ -2061,7 +2078,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="36">
-        <v>42663</v>
+        <v>42667</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>24</v>
@@ -2071,7 +2088,7 @@
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>26</v>
@@ -2080,7 +2097,7 @@
         <v>27</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O9" s="36"/>
       <c r="P9" s="43"/>
@@ -2098,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>22</v>
@@ -2120,7 +2137,7 @@
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="35" t="s">
         <v>26</v>
@@ -2149,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>22</v>
@@ -2171,7 +2188,7 @@
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>26</v>
@@ -2197,16 +2214,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>24</v>
@@ -2222,7 +2239,7 @@
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>26</v>
@@ -2231,11 +2248,9 @@
         <v>27</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="36">
-        <v>42667</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="O12" s="36"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
@@ -2251,13 +2266,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36"/>
@@ -2287,10 +2302,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>37</v>
@@ -2312,7 +2327,7 @@
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>26</v>
@@ -2338,10 +2353,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>37</v>
@@ -2392,7 +2407,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>22</v>
@@ -2420,7 +2435,7 @@
         <v>26</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>28</v>
@@ -2440,10 +2455,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>37</v>
@@ -5981,28 +5996,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
@@ -7043,7 +7058,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7075,40 +7090,40 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>19</v>
@@ -7272,11 +7287,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13 F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB4:JB13 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX4:SX13 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT4:ACT13 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP4:AMP13 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL4:AWL13 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH4:BGH13 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD4:BQD13 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ4:BZZ13 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV4:CJV13 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR4:CTR13 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN4:DDN13 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ4:DNJ13 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF4:DXF13 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB4:EHB13 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX4:EQX13 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT4:FAT13 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP4:FKP13 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL4:FUL13 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH4:GEH13 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD4:GOD13 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ4:GXZ13 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV4:HHV13 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR4:HRR13 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN4:IBN13 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ4:ILJ13 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF4:IVF13 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB4:JFB13 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX4:JOX13 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT4:JYT13 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP4:KIP13 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL4:KSL13 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH4:LCH13 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD4:LMD13 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ4:LVZ13 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV4:MFV13 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR4:MPR13 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN4:MZN13 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ4:NJJ13 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF4:NTF13 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB4:ODB13 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX4:OMX13 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT4:OWT13 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP4:PGP13 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL4:PQL13 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH4:QAH13 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD4:QKD13 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ4:QTZ13 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV4:RDV13 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR4:RNR13 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN4:RXN13 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ4:SHJ13 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF4:SRF13 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB4:TBB13 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX4:TKX13 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT4:TUT13 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP4:UEP13 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL4:UOL13 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH4:UYH13 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID4:VID13 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ4:VRZ13 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV4:WBV13 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR4:WLR13 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN4:WVN13 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN983041:WVN983053">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>No</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>编辑房型是房源描述保存报错</t>
+  </si>
+  <si>
+    <t>房源隐藏等3项与销售无关的筛选项，调整为“且”的逻辑关系</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -258,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -312,6 +315,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -319,14 +338,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,6 +357,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -352,11 +388,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,14 +411,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,53 +450,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,19 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +519,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,37 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,25 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,49 +627,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +782,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -797,6 +811,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,32 +850,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,162 +882,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1610,7 +1613,7 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2272,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36"/>
@@ -2502,21 +2505,49 @@
       <c r="U17" s="47"/>
     </row>
     <row r="18" s="28" customFormat="1" ht="16.5" spans="1:21">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="36">
+        <v>42661</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="36">
+        <v>42661</v>
+      </c>
       <c r="J18" s="35"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="36"/>
+      <c r="K18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="36">
+        <v>42664</v>
+      </c>
       <c r="P18" s="43"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -5996,28 +6027,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
@@ -7058,7 +7089,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7090,40 +7121,40 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>19</v>
@@ -7287,11 +7318,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13 F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB4:JB13 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX4:SX13 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT4:ACT13 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP4:AMP13 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL4:AWL13 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH4:BGH13 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD4:BQD13 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ4:BZZ13 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV4:CJV13 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR4:CTR13 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN4:DDN13 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ4:DNJ13 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF4:DXF13 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB4:EHB13 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX4:EQX13 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT4:FAT13 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP4:FKP13 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL4:FUL13 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH4:GEH13 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD4:GOD13 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ4:GXZ13 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV4:HHV13 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR4:HRR13 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN4:IBN13 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ4:ILJ13 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF4:IVF13 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB4:JFB13 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX4:JOX13 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT4:JYT13 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP4:KIP13 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL4:KSL13 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH4:LCH13 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD4:LMD13 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ4:LVZ13 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV4:MFV13 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR4:MPR13 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN4:MZN13 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ4:NJJ13 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF4:NTF13 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB4:ODB13 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX4:OMX13 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT4:OWT13 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP4:PGP13 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL4:PQL13 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH4:QAH13 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD4:QKD13 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ4:QTZ13 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV4:RDV13 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR4:RNR13 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN4:RXN13 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ4:SHJ13 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF4:SRF13 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB4:TBB13 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX4:TKX13 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT4:TUT13 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP4:UEP13 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL4:UOL13 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH4:UYH13 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID4:VID13 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ4:VRZ13 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV4:WBV13 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR4:WLR13 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN4:WVN13 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN983041:WVN983053">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13 F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB4:JB13 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX4:SX13 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT4:ACT13 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP4:AMP13 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL4:AWL13 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH4:BGH13 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD4:BQD13 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ4:BZZ13 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV4:CJV13 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR4:CTR13 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN4:DDN13 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ4:DNJ13 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF4:DXF13 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB4:EHB13 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX4:EQX13 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT4:FAT13 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP4:FKP13 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL4:FUL13 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH4:GEH13 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD4:GOD13 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ4:GXZ13 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV4:HHV13 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR4:HRR13 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN4:IBN13 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ4:ILJ13 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF4:IVF13 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB4:JFB13 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX4:JOX13 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT4:JYT13 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP4:KIP13 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL4:KSL13 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH4:LCH13 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD4:LMD13 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ4:LVZ13 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV4:MFV13 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR4:MPR13 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN4:MZN13 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ4:NJJ13 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF4:NTF13 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB4:ODB13 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX4:OMX13 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT4:OWT13 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP4:PGP13 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL4:PQL13 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH4:QAH13 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD4:QKD13 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ4:QTZ13 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV4:RDV13 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR4:RNR13 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN4:RXN13 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ4:SHJ13 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF4:SRF13 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB4:TBB13 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX4:TKX13 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT4:TUT13 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP4:UEP13 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL4:UOL13 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH4:UYH13 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID4:VID13 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ4:VRZ13 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV4:WBV13 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR4:WLR13 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN4:WVN13 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN983041:WVN983053">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -12,7 +12,7 @@
     <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4新特性|Fix Bug'!$A$1:$T$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4新特性|Fix Bug'!$A$1:$T$18</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -262,9 +262,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -313,7 +313,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +426,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -336,30 +434,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,79 +455,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,20 +467,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -495,7 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +513,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +555,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,19 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,43 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,61 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +780,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,17 +804,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,25 +835,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,17 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,162 +882,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,7 +1613,7 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2251,9 +2251,11 @@
         <v>27</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="36"/>
+        <v>28</v>
+      </c>
+      <c r="O12" s="36">
+        <v>42668</v>
+      </c>
       <c r="P12" s="43"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
@@ -2291,8 +2293,12 @@
       <c r="M13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="36"/>
+      <c r="N13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="36">
+        <v>42668</v>
+      </c>
       <c r="P13" s="43"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
@@ -5998,7 +6004,7 @@
       <c r="T179" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T17"/>
+  <autoFilter ref="A1:T18"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -7318,11 +7324,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13 F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB4:JB13 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX4:SX13 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT4:ACT13 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP4:AMP13 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL4:AWL13 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH4:BGH13 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD4:BQD13 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ4:BZZ13 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV4:CJV13 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR4:CTR13 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN4:DDN13 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ4:DNJ13 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF4:DXF13 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB4:EHB13 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX4:EQX13 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT4:FAT13 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP4:FKP13 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL4:FUL13 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH4:GEH13 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD4:GOD13 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ4:GXZ13 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV4:HHV13 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR4:HRR13 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN4:IBN13 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ4:ILJ13 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF4:IVF13 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB4:JFB13 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX4:JOX13 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT4:JYT13 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP4:KIP13 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL4:KSL13 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH4:LCH13 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD4:LMD13 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ4:LVZ13 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV4:MFV13 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR4:MPR13 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN4:MZN13 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ4:NJJ13 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF4:NTF13 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB4:ODB13 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX4:OMX13 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT4:OWT13 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP4:PGP13 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL4:PQL13 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH4:QAH13 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD4:QKD13 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ4:QTZ13 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV4:RDV13 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR4:RNR13 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN4:RXN13 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ4:SHJ13 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF4:SRF13 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB4:TBB13 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX4:TKX13 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT4:TUT13 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP4:UEP13 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL4:UOL13 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH4:UYH13 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID4:VID13 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ4:VRZ13 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV4:WBV13 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR4:WLR13 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN4:WVN13 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN983041:WVN983053">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -256,13 +256,21 @@
   </si>
   <si>
     <t>技术经理</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -334,6 +342,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -477,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +644,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1034,7 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,10 +1169,14 @@
       <c r="O2" s="32">
         <v>42664</v>
       </c>
-      <c r="P2" s="39"/>
+      <c r="P2" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="S2" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T2" s="42"/>
       <c r="U2" s="43"/>
     </row>
@@ -1193,10 +1224,14 @@
       <c r="O3" s="32">
         <v>42664</v>
       </c>
-      <c r="P3" s="39"/>
+      <c r="P3" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
+      <c r="S3" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T3" s="44"/>
       <c r="U3" s="43"/>
     </row>
@@ -1244,10 +1279,14 @@
       <c r="O4" s="32">
         <v>42664</v>
       </c>
-      <c r="P4" s="39"/>
+      <c r="P4" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
+      <c r="S4" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T4" s="44"/>
       <c r="U4" s="43"/>
     </row>
@@ -1295,10 +1334,14 @@
       <c r="O5" s="32">
         <v>42664</v>
       </c>
-      <c r="P5" s="39"/>
+      <c r="P5" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="S5" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T5" s="42"/>
       <c r="U5" s="43"/>
     </row>
@@ -1346,10 +1389,14 @@
       <c r="O6" s="32">
         <v>42664</v>
       </c>
-      <c r="P6" s="39"/>
+      <c r="P6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q6" s="36"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
+      <c r="S6" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T6" s="42"/>
       <c r="U6" s="43"/>
     </row>
@@ -1397,10 +1444,14 @@
       <c r="O7" s="32">
         <v>42664</v>
       </c>
-      <c r="P7" s="39"/>
+      <c r="P7" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="S7" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T7" s="42"/>
       <c r="U7" s="43"/>
     </row>
@@ -1448,10 +1499,14 @@
       <c r="O8" s="32">
         <v>42667</v>
       </c>
-      <c r="P8" s="39"/>
+      <c r="P8" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="S8" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T8" s="42"/>
       <c r="U8" s="43"/>
     </row>
@@ -1495,10 +1550,12 @@
       </c>
       <c r="N9" s="39"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="39"/>
+      <c r="P9" s="50"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="S9" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T9" s="42"/>
       <c r="U9" s="43"/>
     </row>
@@ -1546,10 +1603,14 @@
       <c r="O10" s="32">
         <v>42664</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="S10" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T10" s="42"/>
       <c r="U10" s="43"/>
     </row>
@@ -1597,10 +1658,14 @@
       <c r="O11" s="32">
         <v>42664</v>
       </c>
-      <c r="P11" s="39"/>
+      <c r="P11" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
+      <c r="S11" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T11" s="42"/>
       <c r="U11" s="43"/>
     </row>
@@ -1648,10 +1713,14 @@
       <c r="O12" s="32">
         <v>42668</v>
       </c>
-      <c r="P12" s="39"/>
+      <c r="P12" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="S12" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T12" s="42"/>
       <c r="U12" s="43"/>
     </row>
@@ -1691,10 +1760,14 @@
       <c r="O13" s="32">
         <v>42668</v>
       </c>
-      <c r="P13" s="39"/>
+      <c r="P13" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="S13" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
     </row>
@@ -1742,10 +1815,14 @@
       <c r="O14" s="32">
         <v>42667</v>
       </c>
-      <c r="P14" s="39"/>
+      <c r="P14" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q14" s="36"/>
       <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
+      <c r="S14" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T14" s="42"/>
       <c r="U14" s="43"/>
     </row>
@@ -1793,10 +1870,14 @@
       <c r="O15" s="32">
         <v>42664</v>
       </c>
-      <c r="P15" s="39"/>
+      <c r="P15" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
+      <c r="S15" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T15" s="42"/>
       <c r="U15" s="43"/>
     </row>
@@ -1844,10 +1925,14 @@
       <c r="O16" s="32">
         <v>42664</v>
       </c>
-      <c r="P16" s="39"/>
+      <c r="P16" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
+      <c r="S16" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T16" s="42"/>
       <c r="U16" s="43"/>
     </row>
@@ -1895,10 +1980,14 @@
       <c r="O17" s="32">
         <v>42667</v>
       </c>
-      <c r="P17" s="39"/>
+      <c r="P17" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
+      <c r="S17" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T17" s="42"/>
       <c r="U17" s="43"/>
     </row>
@@ -1946,10 +2035,14 @@
       <c r="O18" s="32">
         <v>42664</v>
       </c>
-      <c r="P18" s="39"/>
+      <c r="P18" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
+      <c r="S18" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
     </row>
@@ -5399,7 +5492,7 @@
   <autoFilter ref="A1:T18"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -634,6 +642,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,12 +658,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1174,7 +1182,7 @@
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T2" s="42"/>
@@ -1229,7 +1237,7 @@
       </c>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T3" s="44"/>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T4" s="44"/>
@@ -1339,7 +1347,7 @@
       </c>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T5" s="42"/>
@@ -1394,7 +1402,7 @@
       </c>
       <c r="Q6" s="36"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T6" s="42"/>
@@ -1449,7 +1457,7 @@
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T7" s="42"/>
@@ -1504,7 +1512,7 @@
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T8" s="42"/>
@@ -1548,12 +1556,18 @@
       <c r="M9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="50"/>
+      <c r="N9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="32">
+        <v>42668</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T9" s="42"/>
@@ -1608,7 +1622,7 @@
       </c>
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T10" s="42"/>
@@ -1663,7 +1677,7 @@
       </c>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T11" s="42"/>
@@ -1718,7 +1732,7 @@
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T12" s="42"/>
@@ -1765,7 +1779,7 @@
       </c>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T13" s="42"/>
@@ -1820,7 +1834,7 @@
       </c>
       <c r="Q14" s="36"/>
       <c r="R14" s="36"/>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T14" s="42"/>
@@ -1875,7 +1889,7 @@
       </c>
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T15" s="42"/>
@@ -1930,7 +1944,7 @@
       </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T16" s="42"/>
@@ -1985,7 +1999,7 @@
       </c>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
-      <c r="S17" s="49" t="s">
+      <c r="S17" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T17" s="42"/>
@@ -2040,7 +2054,7 @@
       </c>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="45" t="s">
         <v>78</v>
       </c>
       <c r="T18" s="42"/>
@@ -6577,36 +6591,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -271,6 +271,26 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片物理删除底层方法修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfix</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1041,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1961,7 +1981,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>23</v>
@@ -2061,25 +2081,57 @@
       <c r="U18" s="43"/>
     </row>
     <row r="19" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="32">
+        <v>42668</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="32">
+        <v>42668</v>
+      </c>
       <c r="J19" s="31"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="39"/>
+      <c r="K19" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="32">
+        <v>42668</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="S19" s="45" t="s">
+        <v>78</v>
+      </c>
       <c r="T19" s="42"/>
       <c r="U19" s="43"/>
     </row>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4新特性|Fix Bug'!$A$1:$T$18</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -277,8 +272,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -289,6 +284,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -296,6 +292,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -303,6 +300,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,23 +308,27 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,22 +336,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -699,6 +705,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -718,7 +792,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1038,14 +1112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="25" customWidth="1"/>
@@ -1071,7 +1145,7 @@
     <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="23" customFormat="1" ht="27">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1188,7 +1262,7 @@
       <c r="T2" s="42"/>
       <c r="U2" s="43"/>
     </row>
-    <row r="3" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1243,7 +1317,7 @@
       <c r="T3" s="44"/>
       <c r="U3" s="43"/>
     </row>
-    <row r="4" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1298,7 +1372,7 @@
       <c r="T4" s="44"/>
       <c r="U4" s="43"/>
     </row>
-    <row r="5" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -1353,7 +1427,7 @@
       <c r="T5" s="42"/>
       <c r="U5" s="43"/>
     </row>
-    <row r="6" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1408,7 +1482,7 @@
       <c r="T6" s="42"/>
       <c r="U6" s="43"/>
     </row>
-    <row r="7" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1463,7 +1537,7 @@
       <c r="T7" s="42"/>
       <c r="U7" s="43"/>
     </row>
-    <row r="8" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -1518,7 +1592,7 @@
       <c r="T8" s="42"/>
       <c r="U8" s="43"/>
     </row>
-    <row r="9" spans="1:21" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="24" customFormat="1" ht="33">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -1573,7 +1647,7 @@
       <c r="T9" s="42"/>
       <c r="U9" s="43"/>
     </row>
-    <row r="10" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -1628,7 +1702,7 @@
       <c r="T10" s="42"/>
       <c r="U10" s="43"/>
     </row>
-    <row r="11" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -1683,7 +1757,7 @@
       <c r="T11" s="42"/>
       <c r="U11" s="43"/>
     </row>
-    <row r="12" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -1738,7 +1812,7 @@
       <c r="T12" s="42"/>
       <c r="U12" s="43"/>
     </row>
-    <row r="13" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -1785,7 +1859,7 @@
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
     </row>
-    <row r="14" spans="1:21" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" s="24" customFormat="1" ht="33">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -1840,7 +1914,7 @@
       <c r="T14" s="42"/>
       <c r="U14" s="43"/>
     </row>
-    <row r="15" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -1895,7 +1969,7 @@
       <c r="T15" s="42"/>
       <c r="U15" s="43"/>
     </row>
-    <row r="16" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -1950,7 +2024,7 @@
       <c r="T16" s="42"/>
       <c r="U16" s="43"/>
     </row>
-    <row r="17" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -2005,7 +2079,7 @@
       <c r="T17" s="42"/>
       <c r="U17" s="43"/>
     </row>
-    <row r="18" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -2060,7 +2134,7 @@
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
     </row>
-    <row r="19" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
@@ -2083,7 +2157,7 @@
       <c r="T19" s="42"/>
       <c r="U19" s="43"/>
     </row>
-    <row r="20" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -2106,7 +2180,7 @@
       <c r="T20" s="42"/>
       <c r="U20" s="43"/>
     </row>
-    <row r="21" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
@@ -2129,7 +2203,7 @@
       <c r="T21" s="42"/>
       <c r="U21" s="43"/>
     </row>
-    <row r="22" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -2152,7 +2226,7 @@
       <c r="T22" s="34"/>
       <c r="U22" s="43"/>
     </row>
-    <row r="23" spans="1:21" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" s="24" customFormat="1" ht="16.5">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -2175,7 +2249,7 @@
       <c r="T23" s="34"/>
       <c r="U23" s="43"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37"/>
@@ -2197,7 +2271,7 @@
       <c r="S24" s="36"/>
       <c r="T24" s="37"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -2219,7 +2293,7 @@
       <c r="S25" s="36"/>
       <c r="T25" s="37"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -2241,7 +2315,7 @@
       <c r="S26" s="36"/>
       <c r="T26" s="37"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
@@ -2263,7 +2337,7 @@
       <c r="S27" s="36"/>
       <c r="T27" s="37"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="37"/>
@@ -2285,7 +2359,7 @@
       <c r="S28" s="36"/>
       <c r="T28" s="37"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
@@ -2307,7 +2381,7 @@
       <c r="S29" s="36"/>
       <c r="T29" s="37"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
@@ -2329,7 +2403,7 @@
       <c r="S30" s="36"/>
       <c r="T30" s="37"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -2351,7 +2425,7 @@
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
@@ -2373,7 +2447,7 @@
       <c r="S32" s="36"/>
       <c r="T32" s="37"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
@@ -2395,7 +2469,7 @@
       <c r="S33" s="36"/>
       <c r="T33" s="37"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="37"/>
@@ -2417,7 +2491,7 @@
       <c r="S34" s="36"/>
       <c r="T34" s="37"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
@@ -2439,7 +2513,7 @@
       <c r="S35" s="36"/>
       <c r="T35" s="37"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
@@ -2461,7 +2535,7 @@
       <c r="S36" s="36"/>
       <c r="T36" s="37"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="37"/>
@@ -2483,7 +2557,7 @@
       <c r="S37" s="36"/>
       <c r="T37" s="37"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
@@ -2505,7 +2579,7 @@
       <c r="S38" s="36"/>
       <c r="T38" s="37"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="37"/>
@@ -2527,7 +2601,7 @@
       <c r="S39" s="36"/>
       <c r="T39" s="37"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="37"/>
@@ -2549,7 +2623,7 @@
       <c r="S40" s="36"/>
       <c r="T40" s="37"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
@@ -2571,7 +2645,7 @@
       <c r="S41" s="36"/>
       <c r="T41" s="37"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="37"/>
@@ -2593,7 +2667,7 @@
       <c r="S42" s="36"/>
       <c r="T42" s="37"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
@@ -2615,7 +2689,7 @@
       <c r="S43" s="36"/>
       <c r="T43" s="37"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
@@ -2637,7 +2711,7 @@
       <c r="S44" s="36"/>
       <c r="T44" s="37"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
@@ -2659,7 +2733,7 @@
       <c r="S45" s="36"/>
       <c r="T45" s="37"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
@@ -2681,7 +2755,7 @@
       <c r="S46" s="36"/>
       <c r="T46" s="37"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
@@ -2703,7 +2777,7 @@
       <c r="S47" s="36"/>
       <c r="T47" s="37"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
@@ -2725,7 +2799,7 @@
       <c r="S48" s="36"/>
       <c r="T48" s="37"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
@@ -2747,7 +2821,7 @@
       <c r="S49" s="36"/>
       <c r="T49" s="37"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
@@ -2769,7 +2843,7 @@
       <c r="S50" s="36"/>
       <c r="T50" s="37"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
@@ -2791,7 +2865,7 @@
       <c r="S51" s="36"/>
       <c r="T51" s="37"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
@@ -2813,7 +2887,7 @@
       <c r="S52" s="36"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="16.5">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="37"/>
@@ -2835,7 +2909,7 @@
       <c r="S53" s="36"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="16.5">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="37"/>
@@ -2857,7 +2931,7 @@
       <c r="S54" s="36"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" ht="16.5">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
@@ -2879,7 +2953,7 @@
       <c r="S55" s="36"/>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" ht="16.5">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
@@ -2901,7 +2975,7 @@
       <c r="S56" s="36"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="16.5">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
@@ -2923,7 +2997,7 @@
       <c r="S57" s="36"/>
       <c r="T57" s="37"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="16.5">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="37"/>
@@ -2945,7 +3019,7 @@
       <c r="S58" s="36"/>
       <c r="T58" s="37"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="16.5">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="37"/>
@@ -2967,7 +3041,7 @@
       <c r="S59" s="36"/>
       <c r="T59" s="37"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="16.5">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="37"/>
@@ -2989,7 +3063,7 @@
       <c r="S60" s="36"/>
       <c r="T60" s="37"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="16.5">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37"/>
@@ -3011,7 +3085,7 @@
       <c r="S61" s="36"/>
       <c r="T61" s="37"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
@@ -3033,7 +3107,7 @@
       <c r="S62" s="36"/>
       <c r="T62" s="37"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
@@ -3055,7 +3129,7 @@
       <c r="S63" s="36"/>
       <c r="T63" s="37"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
@@ -3077,7 +3151,7 @@
       <c r="S64" s="36"/>
       <c r="T64" s="37"/>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" ht="16.5">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="37"/>
@@ -3099,7 +3173,7 @@
       <c r="S65" s="36"/>
       <c r="T65" s="37"/>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" ht="16.5">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="37"/>
@@ -3121,7 +3195,7 @@
       <c r="S66" s="36"/>
       <c r="T66" s="37"/>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="16.5">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="37"/>
@@ -3143,7 +3217,7 @@
       <c r="S67" s="36"/>
       <c r="T67" s="37"/>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="16.5">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="37"/>
@@ -3165,7 +3239,7 @@
       <c r="S68" s="36"/>
       <c r="T68" s="37"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="16.5">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="37"/>
@@ -3187,7 +3261,7 @@
       <c r="S69" s="36"/>
       <c r="T69" s="37"/>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="16.5">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="37"/>
@@ -3209,7 +3283,7 @@
       <c r="S70" s="36"/>
       <c r="T70" s="37"/>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" ht="16.5">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="37"/>
@@ -3231,7 +3305,7 @@
       <c r="S71" s="36"/>
       <c r="T71" s="37"/>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="16.5">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="37"/>
@@ -3253,7 +3327,7 @@
       <c r="S72" s="36"/>
       <c r="T72" s="37"/>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" ht="16.5">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="37"/>
@@ -3275,7 +3349,7 @@
       <c r="S73" s="36"/>
       <c r="T73" s="37"/>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" ht="16.5">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="37"/>
@@ -3297,7 +3371,7 @@
       <c r="S74" s="36"/>
       <c r="T74" s="37"/>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" ht="16.5">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="37"/>
@@ -3319,7 +3393,7 @@
       <c r="S75" s="36"/>
       <c r="T75" s="37"/>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" ht="16.5">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="37"/>
@@ -3341,7 +3415,7 @@
       <c r="S76" s="36"/>
       <c r="T76" s="37"/>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" ht="16.5">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="37"/>
@@ -3363,7 +3437,7 @@
       <c r="S77" s="36"/>
       <c r="T77" s="37"/>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" ht="16.5">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="37"/>
@@ -3385,7 +3459,7 @@
       <c r="S78" s="36"/>
       <c r="T78" s="37"/>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" ht="16.5">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="37"/>
@@ -3407,7 +3481,7 @@
       <c r="S79" s="36"/>
       <c r="T79" s="37"/>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" ht="16.5">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="37"/>
@@ -3429,7 +3503,7 @@
       <c r="S80" s="36"/>
       <c r="T80" s="37"/>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" ht="16.5">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="37"/>
@@ -3451,7 +3525,7 @@
       <c r="S81" s="36"/>
       <c r="T81" s="37"/>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" ht="16.5">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="37"/>
@@ -3473,7 +3547,7 @@
       <c r="S82" s="36"/>
       <c r="T82" s="37"/>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" ht="16.5">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
@@ -3495,7 +3569,7 @@
       <c r="S83" s="36"/>
       <c r="T83" s="37"/>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" ht="16.5">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="37"/>
@@ -3517,7 +3591,7 @@
       <c r="S84" s="36"/>
       <c r="T84" s="37"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="37"/>
@@ -3539,7 +3613,7 @@
       <c r="S85" s="36"/>
       <c r="T85" s="37"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="37"/>
@@ -3561,7 +3635,7 @@
       <c r="S86" s="36"/>
       <c r="T86" s="37"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="37"/>
@@ -3583,7 +3657,7 @@
       <c r="S87" s="36"/>
       <c r="T87" s="37"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
@@ -3605,7 +3679,7 @@
       <c r="S88" s="36"/>
       <c r="T88" s="37"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="37"/>
@@ -3627,7 +3701,7 @@
       <c r="S89" s="36"/>
       <c r="T89" s="37"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="37"/>
@@ -3649,7 +3723,7 @@
       <c r="S90" s="36"/>
       <c r="T90" s="37"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="37"/>
@@ -3671,7 +3745,7 @@
       <c r="S91" s="36"/>
       <c r="T91" s="37"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="37"/>
@@ -3693,7 +3767,7 @@
       <c r="S92" s="36"/>
       <c r="T92" s="37"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="37"/>
@@ -3715,7 +3789,7 @@
       <c r="S93" s="36"/>
       <c r="T93" s="37"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="37"/>
@@ -3737,7 +3811,7 @@
       <c r="S94" s="36"/>
       <c r="T94" s="37"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="37"/>
@@ -3759,7 +3833,7 @@
       <c r="S95" s="36"/>
       <c r="T95" s="37"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="37"/>
@@ -3781,7 +3855,7 @@
       <c r="S96" s="36"/>
       <c r="T96" s="37"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="37"/>
@@ -3803,7 +3877,7 @@
       <c r="S97" s="36"/>
       <c r="T97" s="37"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
@@ -3825,7 +3899,7 @@
       <c r="S98" s="36"/>
       <c r="T98" s="37"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="37"/>
@@ -3847,7 +3921,7 @@
       <c r="S99" s="36"/>
       <c r="T99" s="37"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="37"/>
@@ -3869,7 +3943,7 @@
       <c r="S100" s="36"/>
       <c r="T100" s="37"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="37"/>
@@ -3891,7 +3965,7 @@
       <c r="S101" s="36"/>
       <c r="T101" s="37"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="37"/>
@@ -3913,7 +3987,7 @@
       <c r="S102" s="36"/>
       <c r="T102" s="37"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="37"/>
@@ -3935,7 +4009,7 @@
       <c r="S103" s="36"/>
       <c r="T103" s="37"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="37"/>
@@ -3957,7 +4031,7 @@
       <c r="S104" s="36"/>
       <c r="T104" s="37"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="37"/>
@@ -3979,7 +4053,7 @@
       <c r="S105" s="36"/>
       <c r="T105" s="37"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="37"/>
@@ -4001,7 +4075,7 @@
       <c r="S106" s="36"/>
       <c r="T106" s="37"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="37"/>
@@ -4023,7 +4097,7 @@
       <c r="S107" s="36"/>
       <c r="T107" s="37"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="37"/>
@@ -4045,7 +4119,7 @@
       <c r="S108" s="36"/>
       <c r="T108" s="37"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="37"/>
@@ -4067,7 +4141,7 @@
       <c r="S109" s="36"/>
       <c r="T109" s="37"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="37"/>
@@ -4089,7 +4163,7 @@
       <c r="S110" s="36"/>
       <c r="T110" s="37"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="37"/>
@@ -4111,7 +4185,7 @@
       <c r="S111" s="36"/>
       <c r="T111" s="37"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="37"/>
@@ -4133,7 +4207,7 @@
       <c r="S112" s="36"/>
       <c r="T112" s="37"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="37"/>
@@ -4155,7 +4229,7 @@
       <c r="S113" s="36"/>
       <c r="T113" s="37"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="37"/>
@@ -4177,7 +4251,7 @@
       <c r="S114" s="36"/>
       <c r="T114" s="37"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="37"/>
@@ -4199,7 +4273,7 @@
       <c r="S115" s="36"/>
       <c r="T115" s="37"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="37"/>
@@ -4221,7 +4295,7 @@
       <c r="S116" s="36"/>
       <c r="T116" s="37"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="37"/>
@@ -4243,7 +4317,7 @@
       <c r="S117" s="36"/>
       <c r="T117" s="37"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="37"/>
@@ -4265,7 +4339,7 @@
       <c r="S118" s="36"/>
       <c r="T118" s="37"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="37"/>
@@ -4287,7 +4361,7 @@
       <c r="S119" s="36"/>
       <c r="T119" s="37"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="37"/>
@@ -4309,7 +4383,7 @@
       <c r="S120" s="36"/>
       <c r="T120" s="37"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="37"/>
@@ -4331,7 +4405,7 @@
       <c r="S121" s="36"/>
       <c r="T121" s="37"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="37"/>
@@ -4353,7 +4427,7 @@
       <c r="S122" s="36"/>
       <c r="T122" s="37"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="37"/>
@@ -4375,7 +4449,7 @@
       <c r="S123" s="36"/>
       <c r="T123" s="37"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="37"/>
@@ -4397,7 +4471,7 @@
       <c r="S124" s="36"/>
       <c r="T124" s="37"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="37"/>
@@ -4419,7 +4493,7 @@
       <c r="S125" s="36"/>
       <c r="T125" s="37"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="37"/>
@@ -4441,7 +4515,7 @@
       <c r="S126" s="36"/>
       <c r="T126" s="37"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="37"/>
@@ -4463,7 +4537,7 @@
       <c r="S127" s="36"/>
       <c r="T127" s="37"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="37"/>
@@ -4485,7 +4559,7 @@
       <c r="S128" s="36"/>
       <c r="T128" s="37"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="37"/>
@@ -4507,7 +4581,7 @@
       <c r="S129" s="36"/>
       <c r="T129" s="37"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="37"/>
@@ -4529,7 +4603,7 @@
       <c r="S130" s="36"/>
       <c r="T130" s="37"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="37"/>
@@ -4551,7 +4625,7 @@
       <c r="S131" s="36"/>
       <c r="T131" s="37"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="37"/>
@@ -4573,7 +4647,7 @@
       <c r="S132" s="36"/>
       <c r="T132" s="37"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="37"/>
@@ -4595,7 +4669,7 @@
       <c r="S133" s="36"/>
       <c r="T133" s="37"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="37"/>
@@ -4617,7 +4691,7 @@
       <c r="S134" s="36"/>
       <c r="T134" s="37"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="37"/>
@@ -4639,7 +4713,7 @@
       <c r="S135" s="36"/>
       <c r="T135" s="37"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="37"/>
@@ -4661,7 +4735,7 @@
       <c r="S136" s="36"/>
       <c r="T136" s="37"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="37"/>
@@ -4683,7 +4757,7 @@
       <c r="S137" s="36"/>
       <c r="T137" s="37"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="37"/>
@@ -4705,7 +4779,7 @@
       <c r="S138" s="36"/>
       <c r="T138" s="37"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="37"/>
@@ -4727,7 +4801,7 @@
       <c r="S139" s="36"/>
       <c r="T139" s="37"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="37"/>
@@ -4749,7 +4823,7 @@
       <c r="S140" s="36"/>
       <c r="T140" s="37"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="37"/>
@@ -4771,7 +4845,7 @@
       <c r="S141" s="36"/>
       <c r="T141" s="37"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="37"/>
@@ -4793,7 +4867,7 @@
       <c r="S142" s="36"/>
       <c r="T142" s="37"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="37"/>
@@ -4815,7 +4889,7 @@
       <c r="S143" s="36"/>
       <c r="T143" s="37"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="37"/>
@@ -4837,7 +4911,7 @@
       <c r="S144" s="36"/>
       <c r="T144" s="37"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:20">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="37"/>
@@ -4856,7 +4930,7 @@
       <c r="P145" s="37"/>
       <c r="T145" s="37"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:20">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="37"/>
@@ -4875,7 +4949,7 @@
       <c r="P146" s="37"/>
       <c r="T146" s="37"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:20">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="37"/>
@@ -4894,7 +4968,7 @@
       <c r="P147" s="37"/>
       <c r="T147" s="37"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:20">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="37"/>
@@ -4913,7 +4987,7 @@
       <c r="P148" s="37"/>
       <c r="T148" s="37"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:20">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="37"/>
@@ -4932,7 +5006,7 @@
       <c r="P149" s="37"/>
       <c r="T149" s="37"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:20">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="37"/>
@@ -4951,7 +5025,7 @@
       <c r="P150" s="37"/>
       <c r="T150" s="37"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:20">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="37"/>
@@ -4970,7 +5044,7 @@
       <c r="P151" s="37"/>
       <c r="T151" s="37"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:20">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="37"/>
@@ -4989,7 +5063,7 @@
       <c r="P152" s="37"/>
       <c r="T152" s="37"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:20">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="37"/>
@@ -5008,7 +5082,7 @@
       <c r="P153" s="37"/>
       <c r="T153" s="37"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:20">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="37"/>
@@ -5027,7 +5101,7 @@
       <c r="P154" s="37"/>
       <c r="T154" s="37"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:20">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="37"/>
@@ -5046,7 +5120,7 @@
       <c r="P155" s="37"/>
       <c r="T155" s="37"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:20">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="37"/>
@@ -5065,7 +5139,7 @@
       <c r="P156" s="37"/>
       <c r="T156" s="37"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:20">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="37"/>
@@ -5084,7 +5158,7 @@
       <c r="P157" s="37"/>
       <c r="T157" s="37"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:20">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="37"/>
@@ -5103,7 +5177,7 @@
       <c r="P158" s="37"/>
       <c r="T158" s="37"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:20">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="37"/>
@@ -5122,7 +5196,7 @@
       <c r="P159" s="37"/>
       <c r="T159" s="37"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:20">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="37"/>
@@ -5141,7 +5215,7 @@
       <c r="P160" s="37"/>
       <c r="T160" s="37"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:20">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="37"/>
@@ -5160,7 +5234,7 @@
       <c r="P161" s="37"/>
       <c r="T161" s="37"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:20">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="37"/>
@@ -5179,7 +5253,7 @@
       <c r="P162" s="37"/>
       <c r="T162" s="37"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:20">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="37"/>
@@ -5198,7 +5272,7 @@
       <c r="P163" s="37"/>
       <c r="T163" s="37"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:20">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="37"/>
@@ -5217,7 +5291,7 @@
       <c r="P164" s="37"/>
       <c r="T164" s="37"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:20">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="37"/>
@@ -5236,7 +5310,7 @@
       <c r="P165" s="37"/>
       <c r="T165" s="37"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:20">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="37"/>
@@ -5255,7 +5329,7 @@
       <c r="P166" s="37"/>
       <c r="T166" s="37"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:20">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="37"/>
@@ -5274,7 +5348,7 @@
       <c r="P167" s="37"/>
       <c r="T167" s="37"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:20">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="37"/>
@@ -5293,7 +5367,7 @@
       <c r="P168" s="37"/>
       <c r="T168" s="37"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:20">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="37"/>
@@ -5312,7 +5386,7 @@
       <c r="P169" s="37"/>
       <c r="T169" s="37"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:20">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="37"/>
@@ -5331,7 +5405,7 @@
       <c r="P170" s="37"/>
       <c r="T170" s="37"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:20">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="37"/>
@@ -5350,7 +5424,7 @@
       <c r="P171" s="37"/>
       <c r="T171" s="37"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:20">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="37"/>
@@ -5369,7 +5443,7 @@
       <c r="P172" s="37"/>
       <c r="T172" s="37"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:20">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="37"/>
@@ -5388,7 +5462,7 @@
       <c r="P173" s="37"/>
       <c r="T173" s="37"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:20">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="37"/>
@@ -5407,7 +5481,7 @@
       <c r="P174" s="37"/>
       <c r="T174" s="37"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:20">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="37"/>
@@ -5426,7 +5500,7 @@
       <c r="P175" s="37"/>
       <c r="T175" s="37"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:20">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="37"/>
@@ -5445,7 +5519,7 @@
       <c r="P176" s="37"/>
       <c r="T176" s="37"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:20">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="37"/>
@@ -5464,7 +5538,7 @@
       <c r="P177" s="37"/>
       <c r="T177" s="37"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:20">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="37"/>
@@ -5483,7 +5557,7 @@
       <c r="P178" s="37"/>
       <c r="T178" s="37"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:20">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="37"/>
@@ -5511,14 +5585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -5529,7 +5603,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
@@ -5555,7 +5629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5565,7 +5639,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5575,7 +5649,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5585,7 +5659,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5595,7 +5669,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5605,7 +5679,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5615,7 +5689,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -5625,7 +5699,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -5635,7 +5709,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -5645,7 +5719,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -5655,7 +5729,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -5665,7 +5739,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -5675,7 +5749,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -5685,7 +5759,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -5695,7 +5769,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -5705,7 +5779,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -5715,7 +5789,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -5725,7 +5799,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -5747,14 +5821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
@@ -6590,7 +6664,7 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
         <v>64</v>
       </c>
@@ -6607,7 +6681,7 @@
       <c r="L1" s="47"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -6622,7 +6696,7 @@
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -6663,7 +6737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6678,7 +6752,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6693,7 +6767,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6708,7 +6782,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6723,7 +6797,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6738,7 +6812,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6753,7 +6827,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6768,7 +6842,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6783,7 +6857,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6798,7 +6872,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4新特性|Fix Bug'!$A$1:$T$18</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -187,9 +187,6 @@
     <t>编辑房型是房源描述保存报错</t>
   </si>
   <si>
-    <t>房源隐藏等3项与销售无关的筛选项，调整为“且”的逻辑关系</t>
-  </si>
-  <si>
     <t>对应backlog序号</t>
   </si>
   <si>
@@ -266,6 +263,10 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源隐藏等3项与销售无关的筛选项，调整为“且”的逻辑关系</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1115,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1252,12 +1253,12 @@
         <v>42664</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
       <c r="S2" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="42"/>
       <c r="U2" s="43"/>
@@ -1307,12 +1308,12 @@
         <v>42664</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
       <c r="S3" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T3" s="44"/>
       <c r="U3" s="43"/>
@@ -1362,12 +1363,12 @@
         <v>42664</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
       <c r="S4" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T4" s="44"/>
       <c r="U4" s="43"/>
@@ -1417,12 +1418,12 @@
         <v>42664</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
       <c r="S5" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" s="42"/>
       <c r="U5" s="43"/>
@@ -1472,12 +1473,12 @@
         <v>42664</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="36"/>
       <c r="R6" s="36"/>
       <c r="S6" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T6" s="42"/>
       <c r="U6" s="43"/>
@@ -1527,12 +1528,12 @@
         <v>42664</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
       <c r="S7" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="43"/>
@@ -1582,12 +1583,12 @@
         <v>42667</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
       <c r="S8" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="43"/>
@@ -1631,18 +1632,18 @@
         <v>27</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="32">
         <v>42668</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
       <c r="S9" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T9" s="42"/>
       <c r="U9" s="43"/>
@@ -1692,12 +1693,12 @@
         <v>42664</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T10" s="42"/>
       <c r="U10" s="43"/>
@@ -1747,12 +1748,12 @@
         <v>42664</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
       <c r="S11" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" s="42"/>
       <c r="U11" s="43"/>
@@ -1802,12 +1803,12 @@
         <v>42668</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
       <c r="S12" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T12" s="42"/>
       <c r="U12" s="43"/>
@@ -1849,12 +1850,12 @@
         <v>42668</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
@@ -1904,12 +1905,12 @@
         <v>42667</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="36"/>
       <c r="R14" s="36"/>
       <c r="S14" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T14" s="42"/>
       <c r="U14" s="43"/>
@@ -1959,12 +1960,12 @@
         <v>42664</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
       <c r="S15" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T15" s="42"/>
       <c r="U15" s="43"/>
@@ -2014,12 +2015,12 @@
         <v>42664</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T16" s="42"/>
       <c r="U16" s="43"/>
@@ -2069,12 +2070,12 @@
         <v>42667</v>
       </c>
       <c r="P17" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
       <c r="S17" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T17" s="42"/>
       <c r="U17" s="43"/>
@@ -2087,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>22</v>
@@ -2124,12 +2125,12 @@
         <v>42664</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
       <c r="S18" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
@@ -5605,28 +5606,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
@@ -6666,7 +6667,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6698,40 +6699,40 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>19</v>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_马丁组.xlsx
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
